--- a/Automação/Comercial/Cadastro/BOT Cadastro/Teste.xlsx
+++ b/Automação/Comercial/Cadastro/BOT Cadastro/Teste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="POLPINHA DE ABACAXI (100G)" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,6 +412,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -448,6 +492,19 @@
     </border>
     <border>
       <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -494,12 +551,26 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -508,21 +579,10 @@
     <border>
       <left/>
       <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,20 +590,7 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -560,43 +607,12 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -604,28 +620,12 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -636,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -732,57 +732,17 @@
       <alignment vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="1" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -796,43 +756,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -840,62 +784,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="1" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="1" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -918,12 +812,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -954,43 +844,157 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="1" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
@@ -1000,13 +1004,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="1" hidden="1"/>
     </xf>
@@ -1026,7 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1042,33 +1046,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="1" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="1" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="1" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="1" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1424,67 +1428,67 @@
   </sheetPr>
   <dimension ref="B1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="1.5703125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="33.28515625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="15.7109375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="14.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="23.7109375" customWidth="1" style="1" min="5" max="5"/>
-    <col width="14.7109375" customWidth="1" style="1" min="6" max="9"/>
-    <col width="11.5703125" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9.140625" customWidth="1" style="1" min="11" max="16384"/>
+    <col width="1.5546875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="33.33203125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="15.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="14.6640625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="23.6640625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="14.6640625" customWidth="1" style="1" min="6" max="9"/>
+    <col width="11.5546875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.109375" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B1" s="90" t="inlineStr">
+      <c r="B1" s="91" t="inlineStr">
         <is>
           <t>CADASTRO SUPERMERCADOS JOANIN LTDA</t>
         </is>
       </c>
-      <c r="C1" s="91" t="n"/>
-      <c r="D1" s="91" t="n"/>
-      <c r="E1" s="91" t="n"/>
-      <c r="F1" s="91" t="n"/>
-      <c r="G1" s="91" t="n"/>
-      <c r="H1" s="91" t="n"/>
-      <c r="I1" s="91" t="n"/>
-      <c r="J1" s="92" t="n"/>
+      <c r="C1" s="92" t="n"/>
+      <c r="D1" s="92" t="n"/>
+      <c r="E1" s="92" t="n"/>
+      <c r="F1" s="92" t="n"/>
+      <c r="G1" s="92" t="n"/>
+      <c r="H1" s="92" t="n"/>
+      <c r="I1" s="92" t="n"/>
+      <c r="J1" s="93" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1" thickBot="1"/>
     <row r="3" ht="18" customHeight="1">
-      <c r="B3" s="38" t="inlineStr">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>INFORMAÇÕES FORNECEDOR</t>
         </is>
       </c>
-      <c r="C3" s="93" t="n"/>
-      <c r="D3" s="93" t="n"/>
-      <c r="E3" s="93" t="n"/>
-      <c r="F3" s="93" t="n"/>
-      <c r="G3" s="93" t="n"/>
-      <c r="H3" s="93" t="n"/>
-      <c r="I3" s="93" t="n"/>
-      <c r="J3" s="94" t="n"/>
+      <c r="C3" s="94" t="n"/>
+      <c r="D3" s="94" t="n"/>
+      <c r="E3" s="94" t="n"/>
+      <c r="F3" s="94" t="n"/>
+      <c r="G3" s="94" t="n"/>
+      <c r="H3" s="94" t="n"/>
+      <c r="I3" s="94" t="n"/>
+      <c r="J3" s="95" t="n"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="B4" s="95" t="inlineStr">
+      <c r="B4" s="96" t="inlineStr">
         <is>
           <t>É FORNECEDOR NOVO (    ) SIM     (   ) NÃO                           -                            FOI FEITO CONTRATO (   ) SIM      (    ) NÃO</t>
         </is>
       </c>
-      <c r="C4" s="96" t="n"/>
-      <c r="D4" s="96" t="n"/>
-      <c r="E4" s="96" t="n"/>
-      <c r="F4" s="96" t="n"/>
-      <c r="G4" s="96" t="n"/>
-      <c r="H4" s="96" t="n"/>
-      <c r="I4" s="96" t="n"/>
-      <c r="J4" s="97" t="n"/>
+      <c r="C4" s="97" t="n"/>
+      <c r="D4" s="97" t="n"/>
+      <c r="E4" s="97" t="n"/>
+      <c r="F4" s="97" t="n"/>
+      <c r="G4" s="97" t="n"/>
+      <c r="H4" s="97" t="n"/>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="98" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="B5" s="2" t="inlineStr">
@@ -1492,18 +1496,18 @@
           <t>RAZÃO SOCIAL:</t>
         </is>
       </c>
-      <c r="C5" s="98" t="inlineStr">
+      <c r="C5" s="99" t="inlineStr">
         <is>
           <t>NETFEIRA PONTOCOM LTDA</t>
         </is>
       </c>
-      <c r="D5" s="99" t="n"/>
-      <c r="E5" s="99" t="n"/>
-      <c r="F5" s="99" t="n"/>
-      <c r="G5" s="99" t="n"/>
-      <c r="H5" s="99" t="n"/>
-      <c r="I5" s="99" t="n"/>
-      <c r="J5" s="100" t="n"/>
+      <c r="D5" s="100" t="n"/>
+      <c r="E5" s="100" t="n"/>
+      <c r="F5" s="100" t="n"/>
+      <c r="G5" s="100" t="n"/>
+      <c r="H5" s="100" t="n"/>
+      <c r="I5" s="100" t="n"/>
+      <c r="J5" s="101" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="B6" s="3" t="inlineStr">
@@ -1511,26 +1515,26 @@
           <t>CNPJ:</t>
         </is>
       </c>
-      <c r="C6" s="51" t="inlineStr">
+      <c r="C6" s="37" t="inlineStr">
         <is>
           <t>03.974.724/0001-24</t>
         </is>
       </c>
-      <c r="D6" s="101" t="n"/>
+      <c r="D6" s="102" t="n"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t>INSC. ESTADUAL:</t>
         </is>
       </c>
-      <c r="F6" s="72" t="inlineStr">
+      <c r="F6" s="38" t="inlineStr">
         <is>
           <t>115.951.284-113</t>
         </is>
       </c>
-      <c r="G6" s="99" t="n"/>
-      <c r="H6" s="99" t="n"/>
-      <c r="I6" s="99" t="n"/>
-      <c r="J6" s="101" t="n"/>
+      <c r="G6" s="100" t="n"/>
+      <c r="H6" s="100" t="n"/>
+      <c r="I6" s="100" t="n"/>
+      <c r="J6" s="102" t="n"/>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="B7" s="5" t="inlineStr">
@@ -1538,26 +1542,26 @@
           <t>ENDEREÇO:</t>
         </is>
       </c>
-      <c r="C7" s="71" t="inlineStr">
+      <c r="C7" s="44" t="inlineStr">
         <is>
           <t>AVENIDA DOUTOR GASTÃO VIDIGAL</t>
         </is>
       </c>
-      <c r="D7" s="101" t="n"/>
+      <c r="D7" s="102" t="n"/>
       <c r="E7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Nº </t>
         </is>
       </c>
-      <c r="F7" s="72" t="inlineStr">
+      <c r="F7" s="38" t="inlineStr">
         <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="G7" s="99" t="n"/>
-      <c r="H7" s="99" t="n"/>
-      <c r="I7" s="99" t="n"/>
-      <c r="J7" s="101" t="n"/>
+      <c r="G7" s="100" t="n"/>
+      <c r="H7" s="100" t="n"/>
+      <c r="I7" s="100" t="n"/>
+      <c r="J7" s="102" t="n"/>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="B8" s="3" t="inlineStr">
@@ -1565,26 +1569,26 @@
           <t xml:space="preserve">BAIRRO: </t>
         </is>
       </c>
-      <c r="C8" s="51" t="inlineStr">
+      <c r="C8" s="37" t="inlineStr">
         <is>
           <t>VILA LEOPOLDINA</t>
         </is>
       </c>
-      <c r="D8" s="101" t="n"/>
+      <c r="D8" s="102" t="n"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t>CEP:</t>
         </is>
       </c>
-      <c r="F8" s="72" t="inlineStr">
+      <c r="F8" s="38" t="inlineStr">
         <is>
           <t>5316900</t>
         </is>
       </c>
-      <c r="G8" s="99" t="n"/>
-      <c r="H8" s="99" t="n"/>
-      <c r="I8" s="99" t="n"/>
-      <c r="J8" s="101" t="n"/>
+      <c r="G8" s="100" t="n"/>
+      <c r="H8" s="100" t="n"/>
+      <c r="I8" s="100" t="n"/>
+      <c r="J8" s="102" t="n"/>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="B9" s="5" t="inlineStr">
@@ -1592,26 +1596,26 @@
           <t>CIDADE:</t>
         </is>
       </c>
-      <c r="C9" s="34" t="inlineStr">
+      <c r="C9" s="45" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="D9" s="101" t="n"/>
+      <c r="D9" s="102" t="n"/>
       <c r="E9" s="6" t="inlineStr">
         <is>
           <t>ESTADO:</t>
         </is>
       </c>
-      <c r="F9" s="71" t="inlineStr">
+      <c r="F9" s="44" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="G9" s="99" t="n"/>
-      <c r="H9" s="99" t="n"/>
-      <c r="I9" s="99" t="n"/>
-      <c r="J9" s="101" t="n"/>
+      <c r="G9" s="100" t="n"/>
+      <c r="H9" s="100" t="n"/>
+      <c r="I9" s="100" t="n"/>
+      <c r="J9" s="102" t="n"/>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="B10" s="3" t="inlineStr">
@@ -1619,22 +1623,22 @@
           <t>COMPLEMENTO:</t>
         </is>
       </c>
-      <c r="C10" s="51" t="inlineStr">
+      <c r="C10" s="37" t="inlineStr">
         <is>
           <t>P.AMA BOX 61/62,AMB BOX 3,4</t>
         </is>
       </c>
-      <c r="D10" s="101" t="n"/>
+      <c r="D10" s="102" t="n"/>
       <c r="E10" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">PRAZO DE PGTO </t>
         </is>
       </c>
-      <c r="F10" s="102" t="n"/>
-      <c r="G10" s="99" t="n"/>
-      <c r="H10" s="99" t="n"/>
-      <c r="I10" s="99" t="n"/>
-      <c r="J10" s="100" t="n"/>
+      <c r="F10" s="103" t="n"/>
+      <c r="G10" s="100" t="n"/>
+      <c r="H10" s="100" t="n"/>
+      <c r="I10" s="100" t="n"/>
+      <c r="J10" s="101" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="B11" s="3" t="inlineStr">
@@ -1642,18 +1646,18 @@
           <t>CONTATO :</t>
         </is>
       </c>
-      <c r="C11" s="51" t="n"/>
-      <c r="D11" s="101" t="n"/>
+      <c r="C11" s="37" t="n"/>
+      <c r="D11" s="102" t="n"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t>TELEFONE :</t>
         </is>
       </c>
-      <c r="F11" s="75" t="n"/>
-      <c r="G11" s="76" t="n"/>
-      <c r="H11" s="76" t="n"/>
-      <c r="I11" s="76" t="n"/>
-      <c r="J11" s="77" t="n"/>
+      <c r="F11" s="47" t="n"/>
+      <c r="G11" s="48" t="n"/>
+      <c r="H11" s="48" t="n"/>
+      <c r="I11" s="48" t="n"/>
+      <c r="J11" s="49" t="n"/>
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="B12" s="23" t="inlineStr">
@@ -1661,37 +1665,37 @@
           <t>E-MAIL PARA ENVIO XML</t>
         </is>
       </c>
-      <c r="C12" s="78" t="n"/>
-      <c r="D12" s="101" t="n"/>
+      <c r="C12" s="50" t="n"/>
+      <c r="D12" s="102" t="n"/>
       <c r="E12" s="24" t="inlineStr">
         <is>
           <t>E-MAIL PARA FINANCEIRO</t>
         </is>
       </c>
-      <c r="F12" s="80" t="n"/>
-      <c r="G12" s="99" t="n"/>
-      <c r="H12" s="99" t="n"/>
-      <c r="I12" s="99" t="n"/>
-      <c r="J12" s="101" t="n"/>
+      <c r="F12" s="52" t="n"/>
+      <c r="G12" s="100" t="n"/>
+      <c r="H12" s="100" t="n"/>
+      <c r="I12" s="100" t="n"/>
+      <c r="J12" s="102" t="n"/>
     </row>
     <row r="13" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="67" t="inlineStr">
+      <c r="B13" s="40" t="inlineStr">
         <is>
           <t>(    )COM INDENIZAÇÃO - FORNECEDOR ACEITA NOTA FISCAL DE DEVOLUÇÃO</t>
         </is>
       </c>
-      <c r="C13" s="103" t="n"/>
-      <c r="D13" s="103" t="n"/>
-      <c r="E13" s="103" t="n"/>
-      <c r="F13" s="70" t="inlineStr">
+      <c r="C13" s="104" t="n"/>
+      <c r="D13" s="104" t="n"/>
+      <c r="E13" s="104" t="n"/>
+      <c r="F13" s="43" t="inlineStr">
         <is>
           <t>(    ) SEM INDENIZAÇÃO  -  FORNECEDOR NÃO ACEITA NOTA FISCAL DEVOLUÇÃO</t>
         </is>
       </c>
-      <c r="G13" s="104" t="n"/>
-      <c r="H13" s="104" t="n"/>
-      <c r="I13" s="104" t="n"/>
-      <c r="J13" s="105" t="n"/>
+      <c r="G13" s="105" t="n"/>
+      <c r="H13" s="105" t="n"/>
+      <c r="I13" s="105" t="n"/>
+      <c r="J13" s="106" t="n"/>
     </row>
     <row r="14" ht="18" customHeight="1" thickBot="1">
       <c r="B14" s="9" t="n"/>
@@ -1702,19 +1706,19 @@
       <c r="I14" s="10" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="B15" s="38" t="inlineStr">
+      <c r="B15" s="28" t="inlineStr">
         <is>
           <t>DADOS DO PRODUTO - UNIDADE</t>
         </is>
       </c>
-      <c r="C15" s="93" t="n"/>
-      <c r="D15" s="93" t="n"/>
-      <c r="E15" s="93" t="n"/>
-      <c r="F15" s="93" t="n"/>
-      <c r="G15" s="93" t="n"/>
-      <c r="H15" s="93" t="n"/>
-      <c r="I15" s="93" t="n"/>
-      <c r="J15" s="94" t="n"/>
+      <c r="C15" s="94" t="n"/>
+      <c r="D15" s="94" t="n"/>
+      <c r="E15" s="94" t="n"/>
+      <c r="F15" s="94" t="n"/>
+      <c r="G15" s="94" t="n"/>
+      <c r="H15" s="94" t="n"/>
+      <c r="I15" s="94" t="n"/>
+      <c r="J15" s="95" t="n"/>
     </row>
     <row r="16" ht="18" customHeight="1">
       <c r="B16" s="3" t="inlineStr">
@@ -1722,14 +1726,18 @@
           <t>DESCRIÇÃO:</t>
         </is>
       </c>
-      <c r="C16" s="32" t="n"/>
-      <c r="D16" s="99" t="n"/>
-      <c r="E16" s="99" t="n"/>
-      <c r="F16" s="99" t="n"/>
-      <c r="G16" s="99" t="n"/>
-      <c r="H16" s="99" t="n"/>
-      <c r="I16" s="99" t="n"/>
-      <c r="J16" s="101" t="n"/>
+      <c r="C16" s="53" t="inlineStr">
+        <is>
+          <t>POLPINHA DE ABACAXI (100G)</t>
+        </is>
+      </c>
+      <c r="D16" s="100" t="n"/>
+      <c r="E16" s="100" t="n"/>
+      <c r="F16" s="100" t="n"/>
+      <c r="G16" s="100" t="n"/>
+      <c r="H16" s="100" t="n"/>
+      <c r="I16" s="100" t="n"/>
+      <c r="J16" s="102" t="n"/>
       <c r="N16" s="11" t="n"/>
     </row>
     <row r="17" ht="18" customHeight="1">
@@ -1738,22 +1746,26 @@
           <t>CÓD DE BARRAS:</t>
         </is>
       </c>
-      <c r="C17" s="65" t="n"/>
-      <c r="D17" s="101" t="n"/>
+      <c r="C17" s="55" t="inlineStr">
+        <is>
+          <t>7896519211036</t>
+        </is>
+      </c>
+      <c r="D17" s="102" t="n"/>
       <c r="E17" s="12" t="inlineStr">
         <is>
           <t>MARCA:</t>
         </is>
       </c>
-      <c r="F17" s="65" t="inlineStr">
+      <c r="F17" s="55" t="inlineStr">
         <is>
           <t>DE MARCHI</t>
         </is>
       </c>
-      <c r="G17" s="99" t="n"/>
-      <c r="H17" s="99" t="n"/>
-      <c r="I17" s="99" t="n"/>
-      <c r="J17" s="101" t="n"/>
+      <c r="G17" s="100" t="n"/>
+      <c r="H17" s="100" t="n"/>
+      <c r="I17" s="100" t="n"/>
+      <c r="J17" s="102" t="n"/>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="B18" s="3" t="inlineStr">
@@ -1761,18 +1773,26 @@
           <t>PESO LIQUIDO KG:</t>
         </is>
       </c>
-      <c r="C18" s="51" t="n"/>
-      <c r="D18" s="101" t="n"/>
+      <c r="C18" s="37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D18" s="102" t="n"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
           <t>PESO BRUTO KG:</t>
         </is>
       </c>
-      <c r="F18" s="32" t="n"/>
-      <c r="G18" s="99" t="n"/>
-      <c r="H18" s="99" t="n"/>
-      <c r="I18" s="99" t="n"/>
-      <c r="J18" s="101" t="n"/>
+      <c r="F18" s="53" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G18" s="100" t="n"/>
+      <c r="H18" s="100" t="n"/>
+      <c r="I18" s="100" t="n"/>
+      <c r="J18" s="102" t="n"/>
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="B19" s="5" t="inlineStr">
@@ -1780,14 +1800,18 @@
           <t>COMPRIMENTO EM CM:</t>
         </is>
       </c>
-      <c r="C19" s="34" t="n"/>
-      <c r="D19" s="99" t="n"/>
-      <c r="E19" s="99" t="n"/>
-      <c r="F19" s="99" t="n"/>
-      <c r="G19" s="99" t="n"/>
-      <c r="H19" s="99" t="n"/>
-      <c r="I19" s="99" t="n"/>
-      <c r="J19" s="101" t="n"/>
+      <c r="C19" s="45" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D19" s="100" t="n"/>
+      <c r="E19" s="100" t="n"/>
+      <c r="F19" s="100" t="n"/>
+      <c r="G19" s="100" t="n"/>
+      <c r="H19" s="100" t="n"/>
+      <c r="I19" s="100" t="n"/>
+      <c r="J19" s="102" t="n"/>
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="B20" s="3" t="inlineStr">
@@ -1795,14 +1819,18 @@
           <t>LARGURA EM CM:</t>
         </is>
       </c>
-      <c r="C20" s="57" t="n"/>
-      <c r="D20" s="99" t="n"/>
-      <c r="E20" s="99" t="n"/>
-      <c r="F20" s="99" t="n"/>
-      <c r="G20" s="99" t="n"/>
-      <c r="H20" s="99" t="n"/>
-      <c r="I20" s="99" t="n"/>
-      <c r="J20" s="101" t="n"/>
+      <c r="C20" s="58" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="D20" s="100" t="n"/>
+      <c r="E20" s="100" t="n"/>
+      <c r="F20" s="100" t="n"/>
+      <c r="G20" s="100" t="n"/>
+      <c r="H20" s="100" t="n"/>
+      <c r="I20" s="100" t="n"/>
+      <c r="J20" s="102" t="n"/>
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="B21" s="5" t="inlineStr">
@@ -1810,14 +1838,18 @@
           <t>ALTURA EM CM:</t>
         </is>
       </c>
-      <c r="C21" s="59" t="n"/>
-      <c r="D21" s="99" t="n"/>
-      <c r="E21" s="99" t="n"/>
-      <c r="F21" s="99" t="n"/>
-      <c r="G21" s="99" t="n"/>
-      <c r="H21" s="99" t="n"/>
-      <c r="I21" s="99" t="n"/>
-      <c r="J21" s="101" t="n"/>
+      <c r="C21" s="60" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="D21" s="100" t="n"/>
+      <c r="E21" s="100" t="n"/>
+      <c r="F21" s="100" t="n"/>
+      <c r="G21" s="100" t="n"/>
+      <c r="H21" s="100" t="n"/>
+      <c r="I21" s="100" t="n"/>
+      <c r="J21" s="102" t="n"/>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="B22" s="3" t="inlineStr">
@@ -1825,14 +1857,14 @@
           <t>VALIDADE EM DIAS:</t>
         </is>
       </c>
-      <c r="C22" s="32" t="n"/>
-      <c r="D22" s="99" t="n"/>
-      <c r="E22" s="99" t="n"/>
-      <c r="F22" s="99" t="n"/>
-      <c r="G22" s="99" t="n"/>
-      <c r="H22" s="99" t="n"/>
-      <c r="I22" s="99" t="n"/>
-      <c r="J22" s="101" t="n"/>
+      <c r="C22" s="53" t="n"/>
+      <c r="D22" s="100" t="n"/>
+      <c r="E22" s="100" t="n"/>
+      <c r="F22" s="100" t="n"/>
+      <c r="G22" s="100" t="n"/>
+      <c r="H22" s="100" t="n"/>
+      <c r="I22" s="100" t="n"/>
+      <c r="J22" s="102" t="n"/>
     </row>
     <row r="23" ht="18" customHeight="1" thickBot="1">
       <c r="B23" s="7" t="inlineStr">
@@ -1840,34 +1872,38 @@
           <t>COD PRODUTO FORNECEDOR:</t>
         </is>
       </c>
-      <c r="C23" s="25" t="n"/>
-      <c r="D23" s="106" t="n"/>
-      <c r="E23" s="107" t="n"/>
-      <c r="F23" s="61" t="inlineStr">
+      <c r="C23" s="90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D23" s="107" t="n"/>
+      <c r="E23" s="108" t="n"/>
+      <c r="F23" s="63" t="inlineStr">
         <is>
           <t>(É OBRIGADOTÓRIO QUE O CÓDIGO DO FORNECEDOR SEJA O MESMO DO XML)</t>
         </is>
       </c>
-      <c r="G23" s="106" t="n"/>
-      <c r="H23" s="106" t="n"/>
-      <c r="I23" s="106" t="n"/>
-      <c r="J23" s="107" t="n"/>
+      <c r="G23" s="107" t="n"/>
+      <c r="H23" s="107" t="n"/>
+      <c r="I23" s="107" t="n"/>
+      <c r="J23" s="108" t="n"/>
     </row>
     <row r="24" ht="18" customHeight="1" thickBot="1"/>
     <row r="25" ht="18" customHeight="1">
-      <c r="B25" s="38" t="inlineStr">
+      <c r="B25" s="28" t="inlineStr">
         <is>
           <t>DADOS DO PRODUTO - CAIXA</t>
         </is>
       </c>
-      <c r="C25" s="93" t="n"/>
-      <c r="D25" s="93" t="n"/>
-      <c r="E25" s="93" t="n"/>
-      <c r="F25" s="93" t="n"/>
-      <c r="G25" s="93" t="n"/>
-      <c r="H25" s="93" t="n"/>
-      <c r="I25" s="93" t="n"/>
-      <c r="J25" s="94" t="n"/>
+      <c r="C25" s="94" t="n"/>
+      <c r="D25" s="94" t="n"/>
+      <c r="E25" s="94" t="n"/>
+      <c r="F25" s="94" t="n"/>
+      <c r="G25" s="94" t="n"/>
+      <c r="H25" s="94" t="n"/>
+      <c r="I25" s="94" t="n"/>
+      <c r="J25" s="95" t="n"/>
     </row>
     <row r="26" ht="18" customHeight="1">
       <c r="B26" s="3" t="inlineStr">
@@ -1875,14 +1911,18 @@
           <t>TIPO DE EMBALAGEM:</t>
         </is>
       </c>
-      <c r="C26" s="32" t="n"/>
-      <c r="D26" s="99" t="n"/>
-      <c r="E26" s="99" t="n"/>
-      <c r="F26" s="99" t="n"/>
-      <c r="G26" s="99" t="n"/>
-      <c r="H26" s="99" t="n"/>
-      <c r="I26" s="99" t="n"/>
-      <c r="J26" s="101" t="n"/>
+      <c r="C26" s="53" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D26" s="100" t="n"/>
+      <c r="E26" s="100" t="n"/>
+      <c r="F26" s="100" t="n"/>
+      <c r="G26" s="100" t="n"/>
+      <c r="H26" s="100" t="n"/>
+      <c r="I26" s="100" t="n"/>
+      <c r="J26" s="102" t="n"/>
     </row>
     <row r="27" ht="18" customHeight="1">
       <c r="B27" s="5" t="inlineStr">
@@ -1890,14 +1930,18 @@
           <t>QUANTIDADE NA CAIXA:</t>
         </is>
       </c>
-      <c r="C27" s="34" t="n"/>
-      <c r="D27" s="99" t="n"/>
-      <c r="E27" s="99" t="n"/>
-      <c r="F27" s="99" t="n"/>
-      <c r="G27" s="99" t="n"/>
-      <c r="H27" s="99" t="n"/>
-      <c r="I27" s="99" t="n"/>
-      <c r="J27" s="101" t="n"/>
+      <c r="C27" s="45" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D27" s="100" t="n"/>
+      <c r="E27" s="100" t="n"/>
+      <c r="F27" s="100" t="n"/>
+      <c r="G27" s="100" t="n"/>
+      <c r="H27" s="100" t="n"/>
+      <c r="I27" s="100" t="n"/>
+      <c r="J27" s="102" t="n"/>
     </row>
     <row r="28" ht="18" customHeight="1">
       <c r="B28" s="3" t="inlineStr">
@@ -1905,14 +1949,18 @@
           <t>CÓD DUN:</t>
         </is>
       </c>
-      <c r="C28" s="63" t="n"/>
-      <c r="D28" s="99" t="n"/>
-      <c r="E28" s="99" t="n"/>
-      <c r="F28" s="99" t="n"/>
-      <c r="G28" s="99" t="n"/>
-      <c r="H28" s="99" t="n"/>
-      <c r="I28" s="99" t="n"/>
-      <c r="J28" s="101" t="n"/>
+      <c r="C28" s="65" t="inlineStr">
+        <is>
+          <t>67896519211038</t>
+        </is>
+      </c>
+      <c r="D28" s="100" t="n"/>
+      <c r="E28" s="100" t="n"/>
+      <c r="F28" s="100" t="n"/>
+      <c r="G28" s="100" t="n"/>
+      <c r="H28" s="100" t="n"/>
+      <c r="I28" s="100" t="n"/>
+      <c r="J28" s="102" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1">
       <c r="B29" s="5" t="inlineStr">
@@ -1920,14 +1968,18 @@
           <t>PESO BRUTO KG:</t>
         </is>
       </c>
-      <c r="C29" s="34" t="n"/>
-      <c r="D29" s="99" t="n"/>
-      <c r="E29" s="99" t="n"/>
-      <c r="F29" s="99" t="n"/>
-      <c r="G29" s="99" t="n"/>
-      <c r="H29" s="99" t="n"/>
-      <c r="I29" s="99" t="n"/>
-      <c r="J29" s="101" t="n"/>
+      <c r="C29" s="45" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="D29" s="100" t="n"/>
+      <c r="E29" s="100" t="n"/>
+      <c r="F29" s="100" t="n"/>
+      <c r="G29" s="100" t="n"/>
+      <c r="H29" s="100" t="n"/>
+      <c r="I29" s="100" t="n"/>
+      <c r="J29" s="102" t="n"/>
     </row>
     <row r="30" ht="18" customHeight="1">
       <c r="B30" s="3" t="inlineStr">
@@ -1935,14 +1987,18 @@
           <t>PESO LIQUIDO KG:</t>
         </is>
       </c>
-      <c r="C30" s="32" t="n"/>
-      <c r="D30" s="99" t="n"/>
-      <c r="E30" s="99" t="n"/>
-      <c r="F30" s="99" t="n"/>
-      <c r="G30" s="99" t="n"/>
-      <c r="H30" s="99" t="n"/>
-      <c r="I30" s="99" t="n"/>
-      <c r="J30" s="101" t="n"/>
+      <c r="C30" s="53" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D30" s="100" t="n"/>
+      <c r="E30" s="100" t="n"/>
+      <c r="F30" s="100" t="n"/>
+      <c r="G30" s="100" t="n"/>
+      <c r="H30" s="100" t="n"/>
+      <c r="I30" s="100" t="n"/>
+      <c r="J30" s="102" t="n"/>
     </row>
     <row r="31" ht="18" customHeight="1">
       <c r="B31" s="5" t="inlineStr">
@@ -1950,14 +2006,18 @@
           <t>COMPRIMENTO EM CM:</t>
         </is>
       </c>
-      <c r="C31" s="34" t="n"/>
-      <c r="D31" s="99" t="n"/>
-      <c r="E31" s="99" t="n"/>
-      <c r="F31" s="99" t="n"/>
-      <c r="G31" s="99" t="n"/>
-      <c r="H31" s="99" t="n"/>
-      <c r="I31" s="99" t="n"/>
-      <c r="J31" s="101" t="n"/>
+      <c r="C31" s="45" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D31" s="100" t="n"/>
+      <c r="E31" s="100" t="n"/>
+      <c r="F31" s="100" t="n"/>
+      <c r="G31" s="100" t="n"/>
+      <c r="H31" s="100" t="n"/>
+      <c r="I31" s="100" t="n"/>
+      <c r="J31" s="102" t="n"/>
     </row>
     <row r="32" ht="18" customHeight="1">
       <c r="B32" s="3" t="inlineStr">
@@ -1965,14 +2025,18 @@
           <t>LARGURA EM CM:</t>
         </is>
       </c>
-      <c r="C32" s="32" t="n"/>
-      <c r="D32" s="99" t="n"/>
-      <c r="E32" s="99" t="n"/>
-      <c r="F32" s="99" t="n"/>
-      <c r="G32" s="99" t="n"/>
-      <c r="H32" s="99" t="n"/>
-      <c r="I32" s="99" t="n"/>
-      <c r="J32" s="101" t="n"/>
+      <c r="C32" s="53" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="D32" s="100" t="n"/>
+      <c r="E32" s="100" t="n"/>
+      <c r="F32" s="100" t="n"/>
+      <c r="G32" s="100" t="n"/>
+      <c r="H32" s="100" t="n"/>
+      <c r="I32" s="100" t="n"/>
+      <c r="J32" s="102" t="n"/>
     </row>
     <row r="33" ht="18" customHeight="1" thickBot="1">
       <c r="B33" s="7" t="inlineStr">
@@ -1980,41 +2044,45 @@
           <t>ALTURA EM CM:</t>
         </is>
       </c>
-      <c r="C33" s="25" t="n"/>
-      <c r="D33" s="106" t="n"/>
-      <c r="E33" s="106" t="n"/>
-      <c r="F33" s="106" t="n"/>
-      <c r="G33" s="106" t="n"/>
-      <c r="H33" s="106" t="n"/>
-      <c r="I33" s="106" t="n"/>
-      <c r="J33" s="107" t="n"/>
+      <c r="C33" s="62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="D33" s="107" t="n"/>
+      <c r="E33" s="107" t="n"/>
+      <c r="F33" s="107" t="n"/>
+      <c r="G33" s="107" t="n"/>
+      <c r="H33" s="107" t="n"/>
+      <c r="I33" s="107" t="n"/>
+      <c r="J33" s="108" t="n"/>
     </row>
     <row r="34" ht="18" customHeight="1" thickBot="1"/>
     <row r="35" ht="18" customHeight="1">
-      <c r="B35" s="38" t="inlineStr">
+      <c r="B35" s="28" t="inlineStr">
         <is>
           <t>CUSTO DO PRODUTO - UNITÁRIO</t>
         </is>
       </c>
-      <c r="C35" s="108" t="n"/>
-      <c r="D35" s="108" t="n"/>
-      <c r="E35" s="108" t="n"/>
-      <c r="F35" s="108" t="n"/>
-      <c r="G35" s="108" t="n"/>
-      <c r="H35" s="108" t="n"/>
-      <c r="I35" s="108" t="n"/>
-      <c r="J35" s="109" t="n"/>
+      <c r="C35" s="109" t="n"/>
+      <c r="D35" s="109" t="n"/>
+      <c r="E35" s="109" t="n"/>
+      <c r="F35" s="109" t="n"/>
+      <c r="G35" s="109" t="n"/>
+      <c r="H35" s="109" t="n"/>
+      <c r="I35" s="109" t="n"/>
+      <c r="J35" s="110" t="n"/>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="B36" s="110" t="n"/>
-      <c r="C36" s="111" t="n"/>
-      <c r="D36" s="111" t="n"/>
-      <c r="E36" s="111" t="n"/>
-      <c r="F36" s="111" t="n"/>
-      <c r="G36" s="111" t="n"/>
-      <c r="H36" s="111" t="n"/>
-      <c r="I36" s="111" t="n"/>
-      <c r="J36" s="112" t="n"/>
+      <c r="B36" s="111" t="n"/>
+      <c r="C36" s="112" t="n"/>
+      <c r="D36" s="112" t="n"/>
+      <c r="E36" s="112" t="n"/>
+      <c r="F36" s="112" t="n"/>
+      <c r="G36" s="112" t="n"/>
+      <c r="H36" s="112" t="n"/>
+      <c r="I36" s="112" t="n"/>
+      <c r="J36" s="113" t="n"/>
     </row>
     <row r="37" ht="18" customHeight="1">
       <c r="B37" s="17" t="inlineStr">
@@ -2022,18 +2090,18 @@
           <t>CUSTO SEM ST:</t>
         </is>
       </c>
-      <c r="C37" s="51" t="n"/>
-      <c r="D37" s="101" t="n"/>
-      <c r="E37" s="52" t="inlineStr">
+      <c r="C37" s="37" t="n"/>
+      <c r="D37" s="102" t="n"/>
+      <c r="E37" s="70" t="inlineStr">
         <is>
           <t>CUSTO COM ST:</t>
         </is>
       </c>
-      <c r="F37" s="113" t="n"/>
-      <c r="G37" s="51" t="n"/>
-      <c r="H37" s="101" t="n"/>
-      <c r="I37" s="52" t="n"/>
-      <c r="J37" s="113" t="n"/>
+      <c r="F37" s="114" t="n"/>
+      <c r="G37" s="37" t="n"/>
+      <c r="H37" s="102" t="n"/>
+      <c r="I37" s="70" t="n"/>
+      <c r="J37" s="114" t="n"/>
     </row>
     <row r="38" ht="18" customHeight="1">
       <c r="B38" s="17" t="inlineStr">
@@ -2041,18 +2109,18 @@
           <t>VALOR DA ST:</t>
         </is>
       </c>
-      <c r="C38" s="51" t="n"/>
-      <c r="D38" s="101" t="n"/>
-      <c r="E38" s="52" t="inlineStr">
+      <c r="C38" s="37" t="n"/>
+      <c r="D38" s="102" t="n"/>
+      <c r="E38" s="70" t="inlineStr">
         <is>
           <t>CUSTO UNITÁRIO FINAL:</t>
         </is>
       </c>
-      <c r="F38" s="113" t="n"/>
-      <c r="G38" s="51" t="n"/>
-      <c r="H38" s="101" t="n"/>
-      <c r="I38" s="52" t="n"/>
-      <c r="J38" s="113" t="n"/>
+      <c r="F38" s="114" t="n"/>
+      <c r="G38" s="37" t="n"/>
+      <c r="H38" s="102" t="n"/>
+      <c r="I38" s="70" t="n"/>
+      <c r="J38" s="114" t="n"/>
     </row>
     <row r="39" ht="18" customHeight="1">
       <c r="B39" s="17" t="inlineStr">
@@ -2060,49 +2128,49 @@
           <t>VERBA:</t>
         </is>
       </c>
-      <c r="C39" s="51" t="n"/>
-      <c r="D39" s="101" t="n"/>
-      <c r="E39" s="52" t="inlineStr">
+      <c r="C39" s="37" t="n"/>
+      <c r="D39" s="102" t="n"/>
+      <c r="E39" s="70" t="inlineStr">
         <is>
           <t>MARGEM:</t>
         </is>
       </c>
-      <c r="F39" s="113" t="n"/>
-      <c r="G39" s="51" t="n"/>
-      <c r="H39" s="101" t="n"/>
-      <c r="I39" s="52" t="n"/>
-      <c r="J39" s="113" t="n"/>
+      <c r="F39" s="114" t="n"/>
+      <c r="G39" s="37" t="n"/>
+      <c r="H39" s="102" t="n"/>
+      <c r="I39" s="70" t="n"/>
+      <c r="J39" s="114" t="n"/>
     </row>
     <row r="40" ht="18" customHeight="1" thickBot="1">
       <c r="B40" s="18" t="n"/>
-      <c r="C40" s="53" t="n"/>
-      <c r="D40" s="107" t="n"/>
-      <c r="E40" s="54" t="inlineStr">
+      <c r="C40" s="71" t="n"/>
+      <c r="D40" s="108" t="n"/>
+      <c r="E40" s="72" t="inlineStr">
         <is>
           <t>VALOR DE VENDA:</t>
         </is>
       </c>
-      <c r="F40" s="114" t="n"/>
-      <c r="G40" s="53" t="n"/>
-      <c r="H40" s="107" t="n"/>
-      <c r="I40" s="54" t="n"/>
-      <c r="J40" s="114" t="n"/>
+      <c r="F40" s="115" t="n"/>
+      <c r="G40" s="71" t="n"/>
+      <c r="H40" s="108" t="n"/>
+      <c r="I40" s="72" t="n"/>
+      <c r="J40" s="115" t="n"/>
     </row>
     <row r="41" ht="18" customHeight="1" thickBot="1"/>
     <row r="42" ht="18" customHeight="1">
-      <c r="B42" s="38" t="inlineStr">
+      <c r="B42" s="28" t="inlineStr">
         <is>
           <t>DADOS PALLETIZAÇÃO</t>
         </is>
       </c>
-      <c r="C42" s="93" t="n"/>
-      <c r="D42" s="93" t="n"/>
-      <c r="E42" s="93" t="n"/>
-      <c r="F42" s="93" t="n"/>
-      <c r="G42" s="93" t="n"/>
-      <c r="H42" s="93" t="n"/>
-      <c r="I42" s="93" t="n"/>
-      <c r="J42" s="94" t="n"/>
+      <c r="C42" s="94" t="n"/>
+      <c r="D42" s="94" t="n"/>
+      <c r="E42" s="94" t="n"/>
+      <c r="F42" s="94" t="n"/>
+      <c r="G42" s="94" t="n"/>
+      <c r="H42" s="94" t="n"/>
+      <c r="I42" s="94" t="n"/>
+      <c r="J42" s="95" t="n"/>
     </row>
     <row r="43" ht="18" customHeight="1">
       <c r="B43" s="3" t="inlineStr">
@@ -2110,14 +2178,14 @@
           <t>LASTRO/CAMADA:</t>
         </is>
       </c>
-      <c r="C43" s="32" t="n"/>
-      <c r="D43" s="99" t="n"/>
-      <c r="E43" s="99" t="n"/>
-      <c r="F43" s="99" t="n"/>
-      <c r="G43" s="99" t="n"/>
-      <c r="H43" s="99" t="n"/>
-      <c r="I43" s="99" t="n"/>
-      <c r="J43" s="101" t="n"/>
+      <c r="C43" s="53" t="n"/>
+      <c r="D43" s="100" t="n"/>
+      <c r="E43" s="100" t="n"/>
+      <c r="F43" s="100" t="n"/>
+      <c r="G43" s="100" t="n"/>
+      <c r="H43" s="100" t="n"/>
+      <c r="I43" s="100" t="n"/>
+      <c r="J43" s="102" t="n"/>
     </row>
     <row r="44" ht="18" customHeight="1" thickBot="1">
       <c r="B44" s="7" t="inlineStr">
@@ -2125,30 +2193,30 @@
           <t>ALTURA:</t>
         </is>
       </c>
-      <c r="C44" s="25" t="n"/>
-      <c r="D44" s="106" t="n"/>
-      <c r="E44" s="106" t="n"/>
-      <c r="F44" s="106" t="n"/>
-      <c r="G44" s="106" t="n"/>
-      <c r="H44" s="106" t="n"/>
-      <c r="I44" s="106" t="n"/>
-      <c r="J44" s="107" t="n"/>
+      <c r="C44" s="62" t="n"/>
+      <c r="D44" s="107" t="n"/>
+      <c r="E44" s="107" t="n"/>
+      <c r="F44" s="107" t="n"/>
+      <c r="G44" s="107" t="n"/>
+      <c r="H44" s="107" t="n"/>
+      <c r="I44" s="107" t="n"/>
+      <c r="J44" s="108" t="n"/>
     </row>
     <row r="45" ht="18" customHeight="1" thickBot="1"/>
     <row r="46" ht="18" customHeight="1">
-      <c r="B46" s="38" t="inlineStr">
+      <c r="B46" s="28" t="inlineStr">
         <is>
           <t>INFORMAÇÕES FISCAIS</t>
         </is>
       </c>
-      <c r="C46" s="93" t="n"/>
-      <c r="D46" s="93" t="n"/>
-      <c r="E46" s="93" t="n"/>
-      <c r="F46" s="93" t="n"/>
-      <c r="G46" s="93" t="n"/>
-      <c r="H46" s="93" t="n"/>
-      <c r="I46" s="93" t="n"/>
-      <c r="J46" s="94" t="n"/>
+      <c r="C46" s="94" t="n"/>
+      <c r="D46" s="94" t="n"/>
+      <c r="E46" s="94" t="n"/>
+      <c r="F46" s="94" t="n"/>
+      <c r="G46" s="94" t="n"/>
+      <c r="H46" s="94" t="n"/>
+      <c r="I46" s="94" t="n"/>
+      <c r="J46" s="95" t="n"/>
     </row>
     <row r="47" ht="18" customHeight="1">
       <c r="B47" s="3" t="inlineStr">
@@ -2156,14 +2224,18 @@
           <t>NCM:</t>
         </is>
       </c>
-      <c r="C47" s="32" t="n"/>
-      <c r="D47" s="99" t="n"/>
-      <c r="E47" s="99" t="n"/>
-      <c r="F47" s="99" t="n"/>
-      <c r="G47" s="99" t="n"/>
-      <c r="H47" s="99" t="n"/>
-      <c r="I47" s="99" t="n"/>
-      <c r="J47" s="101" t="n"/>
+      <c r="C47" s="53" t="inlineStr">
+        <is>
+          <t>0811.90.00</t>
+        </is>
+      </c>
+      <c r="D47" s="100" t="n"/>
+      <c r="E47" s="100" t="n"/>
+      <c r="F47" s="100" t="n"/>
+      <c r="G47" s="100" t="n"/>
+      <c r="H47" s="100" t="n"/>
+      <c r="I47" s="100" t="n"/>
+      <c r="J47" s="102" t="n"/>
     </row>
     <row r="48" ht="18" customHeight="1">
       <c r="B48" s="5" t="inlineStr">
@@ -2171,14 +2243,18 @@
           <t>CEST:</t>
         </is>
       </c>
-      <c r="C48" s="34" t="n"/>
-      <c r="D48" s="99" t="n"/>
-      <c r="E48" s="99" t="n"/>
-      <c r="F48" s="99" t="n"/>
-      <c r="G48" s="99" t="n"/>
-      <c r="H48" s="99" t="n"/>
-      <c r="I48" s="99" t="n"/>
-      <c r="J48" s="101" t="n"/>
+      <c r="C48" s="45" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="D48" s="100" t="n"/>
+      <c r="E48" s="100" t="n"/>
+      <c r="F48" s="100" t="n"/>
+      <c r="G48" s="100" t="n"/>
+      <c r="H48" s="100" t="n"/>
+      <c r="I48" s="100" t="n"/>
+      <c r="J48" s="102" t="n"/>
     </row>
     <row r="49" ht="18" customHeight="1">
       <c r="B49" s="3" t="inlineStr">
@@ -2186,14 +2262,14 @@
           <t>IPI:</t>
         </is>
       </c>
-      <c r="C49" s="32" t="n"/>
-      <c r="D49" s="99" t="n"/>
-      <c r="E49" s="99" t="n"/>
-      <c r="F49" s="99" t="n"/>
-      <c r="G49" s="99" t="n"/>
-      <c r="H49" s="99" t="n"/>
-      <c r="I49" s="99" t="n"/>
-      <c r="J49" s="101" t="n"/>
+      <c r="C49" s="53" t="n"/>
+      <c r="D49" s="100" t="n"/>
+      <c r="E49" s="100" t="n"/>
+      <c r="F49" s="100" t="n"/>
+      <c r="G49" s="100" t="n"/>
+      <c r="H49" s="100" t="n"/>
+      <c r="I49" s="100" t="n"/>
+      <c r="J49" s="102" t="n"/>
     </row>
     <row r="50" ht="18" customHeight="1">
       <c r="B50" s="5" t="inlineStr">
@@ -2201,14 +2277,14 @@
           <t>ICMS ORIGEM:</t>
         </is>
       </c>
-      <c r="C50" s="44" t="n"/>
-      <c r="D50" s="99" t="n"/>
-      <c r="E50" s="99" t="n"/>
-      <c r="F50" s="99" t="n"/>
-      <c r="G50" s="99" t="n"/>
-      <c r="H50" s="99" t="n"/>
-      <c r="I50" s="99" t="n"/>
-      <c r="J50" s="101" t="n"/>
+      <c r="C50" s="75" t="n"/>
+      <c r="D50" s="100" t="n"/>
+      <c r="E50" s="100" t="n"/>
+      <c r="F50" s="100" t="n"/>
+      <c r="G50" s="100" t="n"/>
+      <c r="H50" s="100" t="n"/>
+      <c r="I50" s="100" t="n"/>
+      <c r="J50" s="102" t="n"/>
     </row>
     <row r="51" ht="18" customHeight="1">
       <c r="B51" s="3" t="inlineStr">
@@ -2216,18 +2292,18 @@
           <t>ICMS ENTRADA (SAIDA FORNEDOR):</t>
         </is>
       </c>
-      <c r="C51" s="46" t="n"/>
-      <c r="D51" s="101" t="n"/>
+      <c r="C51" s="77" t="n"/>
+      <c r="D51" s="102" t="n"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
           <t>CST ICMS</t>
         </is>
       </c>
-      <c r="F51" s="47" t="n"/>
-      <c r="G51" s="99" t="n"/>
-      <c r="H51" s="99" t="n"/>
-      <c r="I51" s="99" t="n"/>
-      <c r="J51" s="101" t="n"/>
+      <c r="F51" s="78" t="n"/>
+      <c r="G51" s="100" t="n"/>
+      <c r="H51" s="100" t="n"/>
+      <c r="I51" s="100" t="n"/>
+      <c r="J51" s="102" t="n"/>
     </row>
     <row r="52" ht="18" customHeight="1">
       <c r="B52" s="5" t="inlineStr">
@@ -2235,14 +2311,14 @@
           <t>REDUÇÃO DE ICMS:</t>
         </is>
       </c>
-      <c r="C52" s="49" t="n"/>
-      <c r="D52" s="99" t="n"/>
-      <c r="E52" s="99" t="n"/>
-      <c r="F52" s="99" t="n"/>
-      <c r="G52" s="99" t="n"/>
-      <c r="H52" s="99" t="n"/>
-      <c r="I52" s="99" t="n"/>
-      <c r="J52" s="101" t="n"/>
+      <c r="C52" s="80" t="n"/>
+      <c r="D52" s="100" t="n"/>
+      <c r="E52" s="100" t="n"/>
+      <c r="F52" s="100" t="n"/>
+      <c r="G52" s="100" t="n"/>
+      <c r="H52" s="100" t="n"/>
+      <c r="I52" s="100" t="n"/>
+      <c r="J52" s="102" t="n"/>
     </row>
     <row r="53" ht="18" customHeight="1">
       <c r="B53" s="3" t="inlineStr">
@@ -2250,14 +2326,14 @@
           <t>IVA%</t>
         </is>
       </c>
-      <c r="C53" s="32" t="n"/>
-      <c r="D53" s="99" t="n"/>
-      <c r="E53" s="99" t="n"/>
-      <c r="F53" s="99" t="n"/>
-      <c r="G53" s="99" t="n"/>
-      <c r="H53" s="99" t="n"/>
-      <c r="I53" s="99" t="n"/>
-      <c r="J53" s="101" t="n"/>
+      <c r="C53" s="53" t="n"/>
+      <c r="D53" s="100" t="n"/>
+      <c r="E53" s="100" t="n"/>
+      <c r="F53" s="100" t="n"/>
+      <c r="G53" s="100" t="n"/>
+      <c r="H53" s="100" t="n"/>
+      <c r="I53" s="100" t="n"/>
+      <c r="J53" s="102" t="n"/>
     </row>
     <row r="54" ht="18" customHeight="1">
       <c r="B54" s="5" t="inlineStr">
@@ -2265,14 +2341,14 @@
           <t>PAUTA%</t>
         </is>
       </c>
-      <c r="C54" s="34" t="n"/>
-      <c r="D54" s="99" t="n"/>
-      <c r="E54" s="99" t="n"/>
-      <c r="F54" s="99" t="n"/>
-      <c r="G54" s="99" t="n"/>
-      <c r="H54" s="99" t="n"/>
-      <c r="I54" s="99" t="n"/>
-      <c r="J54" s="101" t="n"/>
+      <c r="C54" s="45" t="n"/>
+      <c r="D54" s="100" t="n"/>
+      <c r="E54" s="100" t="n"/>
+      <c r="F54" s="100" t="n"/>
+      <c r="G54" s="100" t="n"/>
+      <c r="H54" s="100" t="n"/>
+      <c r="I54" s="100" t="n"/>
+      <c r="J54" s="102" t="n"/>
     </row>
     <row r="55" ht="18" customHeight="1">
       <c r="B55" s="3" t="inlineStr">
@@ -2280,18 +2356,18 @@
           <t>PIS%</t>
         </is>
       </c>
-      <c r="C55" s="42" t="n"/>
-      <c r="D55" s="101" t="n"/>
+      <c r="C55" s="73" t="n"/>
+      <c r="D55" s="102" t="n"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
           <t>CST PIS</t>
         </is>
       </c>
-      <c r="F55" s="42" t="n"/>
-      <c r="G55" s="99" t="n"/>
-      <c r="H55" s="99" t="n"/>
-      <c r="I55" s="99" t="n"/>
-      <c r="J55" s="101" t="n"/>
+      <c r="F55" s="73" t="n"/>
+      <c r="G55" s="100" t="n"/>
+      <c r="H55" s="100" t="n"/>
+      <c r="I55" s="100" t="n"/>
+      <c r="J55" s="102" t="n"/>
     </row>
     <row r="56" ht="18" customHeight="1" thickBot="1">
       <c r="B56" s="7" t="inlineStr">
@@ -2299,34 +2375,34 @@
           <t>COFINS%:</t>
         </is>
       </c>
-      <c r="C56" s="36" t="n"/>
-      <c r="D56" s="107" t="n"/>
+      <c r="C56" s="82" t="n"/>
+      <c r="D56" s="108" t="n"/>
       <c r="E56" s="8" t="inlineStr">
         <is>
           <t>CST COFINS</t>
         </is>
       </c>
-      <c r="F56" s="36" t="n"/>
-      <c r="G56" s="106" t="n"/>
-      <c r="H56" s="106" t="n"/>
-      <c r="I56" s="106" t="n"/>
-      <c r="J56" s="107" t="n"/>
+      <c r="F56" s="82" t="n"/>
+      <c r="G56" s="107" t="n"/>
+      <c r="H56" s="107" t="n"/>
+      <c r="I56" s="107" t="n"/>
+      <c r="J56" s="108" t="n"/>
     </row>
     <row r="57" ht="18" customHeight="1" thickBot="1"/>
     <row r="58" ht="18" customHeight="1">
-      <c r="B58" s="38" t="inlineStr">
+      <c r="B58" s="28" t="inlineStr">
         <is>
           <t>INFORMAÇÕES PREENCHIDAS PELA COMERCIAL OSWALDO CRUZ</t>
         </is>
       </c>
-      <c r="C58" s="93" t="n"/>
-      <c r="D58" s="93" t="n"/>
-      <c r="E58" s="93" t="n"/>
-      <c r="F58" s="93" t="n"/>
-      <c r="G58" s="93" t="n"/>
-      <c r="H58" s="93" t="n"/>
-      <c r="I58" s="93" t="n"/>
-      <c r="J58" s="94" t="n"/>
+      <c r="C58" s="94" t="n"/>
+      <c r="D58" s="94" t="n"/>
+      <c r="E58" s="94" t="n"/>
+      <c r="F58" s="94" t="n"/>
+      <c r="G58" s="94" t="n"/>
+      <c r="H58" s="94" t="n"/>
+      <c r="I58" s="94" t="n"/>
+      <c r="J58" s="95" t="n"/>
     </row>
     <row r="59" ht="18" customHeight="1">
       <c r="B59" s="5" t="inlineStr">
@@ -2334,14 +2410,14 @@
           <t>COMPRADOR:</t>
         </is>
       </c>
-      <c r="C59" s="34" t="n"/>
-      <c r="D59" s="99" t="n"/>
-      <c r="E59" s="99" t="n"/>
-      <c r="F59" s="99" t="n"/>
-      <c r="G59" s="99" t="n"/>
-      <c r="H59" s="99" t="n"/>
-      <c r="I59" s="99" t="n"/>
-      <c r="J59" s="101" t="n"/>
+      <c r="C59" s="45" t="n"/>
+      <c r="D59" s="100" t="n"/>
+      <c r="E59" s="100" t="n"/>
+      <c r="F59" s="100" t="n"/>
+      <c r="G59" s="100" t="n"/>
+      <c r="H59" s="100" t="n"/>
+      <c r="I59" s="100" t="n"/>
+      <c r="J59" s="102" t="n"/>
     </row>
     <row r="60" ht="18" customFormat="1" customHeight="1" s="9">
       <c r="B60" s="3" t="inlineStr">
@@ -2349,25 +2425,25 @@
           <t>MAPA:</t>
         </is>
       </c>
-      <c r="C60" s="41" t="inlineStr">
+      <c r="C60" s="84" t="inlineStr">
         <is>
           <t>A GRANDE (  )</t>
         </is>
       </c>
-      <c r="D60" s="115" t="n"/>
-      <c r="E60" s="41" t="inlineStr">
+      <c r="D60" s="116" t="n"/>
+      <c r="E60" s="84" t="inlineStr">
         <is>
           <t>A PEQUENO (  )</t>
         </is>
       </c>
-      <c r="F60" s="115" t="n"/>
-      <c r="G60" s="41" t="inlineStr">
+      <c r="F60" s="116" t="n"/>
+      <c r="G60" s="84" t="inlineStr">
         <is>
           <t>C GRANDE (  )</t>
         </is>
       </c>
-      <c r="H60" s="115" t="n"/>
-      <c r="I60" s="41" t="inlineStr">
+      <c r="H60" s="116" t="n"/>
+      <c r="I60" s="84" t="inlineStr">
         <is>
           <t>C PEQUENO (  )</t>
         </is>
@@ -2462,30 +2538,30 @@
           <t>FORMA DE ABASTECIMENTO:</t>
         </is>
       </c>
-      <c r="C63" s="30" t="inlineStr">
+      <c r="C63" s="88" t="inlineStr">
         <is>
           <t>CENTRAL - CENTRAL (  )</t>
         </is>
       </c>
-      <c r="D63" s="115" t="n"/>
-      <c r="E63" s="30" t="inlineStr">
+      <c r="D63" s="116" t="n"/>
+      <c r="E63" s="88" t="inlineStr">
         <is>
           <t>CENTRAL - LOJA (  )</t>
         </is>
       </c>
-      <c r="F63" s="115" t="n"/>
-      <c r="G63" s="30" t="inlineStr">
+      <c r="F63" s="116" t="n"/>
+      <c r="G63" s="88" t="inlineStr">
         <is>
           <t>LOJA - LOJA (  )</t>
         </is>
       </c>
-      <c r="H63" s="115" t="n"/>
-      <c r="I63" s="30" t="inlineStr">
+      <c r="H63" s="116" t="n"/>
+      <c r="I63" s="88" t="inlineStr">
         <is>
           <t>CROSSDOCKING (  )</t>
         </is>
       </c>
-      <c r="J63" s="115" t="n"/>
+      <c r="J63" s="116" t="n"/>
     </row>
     <row r="64" ht="18" customHeight="1">
       <c r="B64" s="3" t="inlineStr">
@@ -2493,14 +2569,14 @@
           <t>JÁ EXISTE FAMÍLIA CADASTRADA?</t>
         </is>
       </c>
-      <c r="C64" s="32" t="n"/>
-      <c r="D64" s="99" t="n"/>
-      <c r="E64" s="99" t="n"/>
-      <c r="F64" s="99" t="n"/>
-      <c r="G64" s="99" t="n"/>
-      <c r="H64" s="99" t="n"/>
-      <c r="I64" s="99" t="n"/>
-      <c r="J64" s="101" t="n"/>
+      <c r="C64" s="53" t="n"/>
+      <c r="D64" s="100" t="n"/>
+      <c r="E64" s="100" t="n"/>
+      <c r="F64" s="100" t="n"/>
+      <c r="G64" s="100" t="n"/>
+      <c r="H64" s="100" t="n"/>
+      <c r="I64" s="100" t="n"/>
+      <c r="J64" s="102" t="n"/>
     </row>
     <row r="65" ht="18" customHeight="1">
       <c r="B65" s="5" t="inlineStr">
@@ -2508,14 +2584,14 @@
           <t>INFORME O CÓDIGO DA FAMÍLIA:</t>
         </is>
       </c>
-      <c r="C65" s="34" t="n"/>
-      <c r="D65" s="99" t="n"/>
-      <c r="E65" s="99" t="n"/>
-      <c r="F65" s="99" t="n"/>
-      <c r="G65" s="99" t="n"/>
-      <c r="H65" s="99" t="n"/>
-      <c r="I65" s="99" t="n"/>
-      <c r="J65" s="101" t="n"/>
+      <c r="C65" s="45" t="n"/>
+      <c r="D65" s="100" t="n"/>
+      <c r="E65" s="100" t="n"/>
+      <c r="F65" s="100" t="n"/>
+      <c r="G65" s="100" t="n"/>
+      <c r="H65" s="100" t="n"/>
+      <c r="I65" s="100" t="n"/>
+      <c r="J65" s="102" t="n"/>
     </row>
     <row r="66" ht="18" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="inlineStr">
@@ -2523,14 +2599,14 @@
           <t>SEGMENTAÇÃO:</t>
         </is>
       </c>
-      <c r="C66" s="25" t="n"/>
-      <c r="D66" s="106" t="n"/>
-      <c r="E66" s="106" t="n"/>
-      <c r="F66" s="106" t="n"/>
-      <c r="G66" s="106" t="n"/>
-      <c r="H66" s="106" t="n"/>
-      <c r="I66" s="106" t="n"/>
-      <c r="J66" s="107" t="n"/>
+      <c r="C66" s="62" t="n"/>
+      <c r="D66" s="107" t="n"/>
+      <c r="E66" s="107" t="n"/>
+      <c r="F66" s="107" t="n"/>
+      <c r="G66" s="107" t="n"/>
+      <c r="H66" s="107" t="n"/>
+      <c r="I66" s="107" t="n"/>
+      <c r="J66" s="108" t="n"/>
     </row>
     <row r="67" ht="18" customHeight="1" thickBot="1">
       <c r="B67" s="9" t="n"/>
@@ -2541,19 +2617,19 @@
       <c r="I67" s="10" t="n"/>
     </row>
     <row r="68" ht="18" customHeight="1" thickBot="1">
-      <c r="B68" s="116" t="inlineStr">
+      <c r="B68" s="117" t="inlineStr">
         <is>
           <t>ATENÇÃO: TODO PRODUTO NOVO PRECISA DE UMA DIVISÃO INICIAL FEITA PELO COMPRADOR</t>
         </is>
       </c>
-      <c r="C68" s="117" t="n"/>
-      <c r="D68" s="117" t="n"/>
-      <c r="E68" s="117" t="n"/>
-      <c r="F68" s="117" t="n"/>
-      <c r="G68" s="117" t="n"/>
-      <c r="H68" s="117" t="n"/>
-      <c r="I68" s="117" t="n"/>
-      <c r="J68" s="118" t="n"/>
+      <c r="C68" s="118" t="n"/>
+      <c r="D68" s="118" t="n"/>
+      <c r="E68" s="118" t="n"/>
+      <c r="F68" s="118" t="n"/>
+      <c r="G68" s="118" t="n"/>
+      <c r="H68" s="118" t="n"/>
+      <c r="I68" s="118" t="n"/>
+      <c r="J68" s="119" t="n"/>
     </row>
     <row r="69" ht="18" customHeight="1"/>
     <row r="70" ht="18" customHeight="1"/>
@@ -2582,96 +2658,96 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="B1:J1"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="F9:J9"/>
     <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B35:J36"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="C27:J27"/>
     <mergeCell ref="B4:J4"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C53:J53"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I39:J39"/>
     <mergeCell ref="F13:J13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="B35:J36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C65:J65"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -2687,63 +2763,63 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="1.5703125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="33.28515625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="15.7109375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="14.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="23.7109375" customWidth="1" style="1" min="5" max="5"/>
-    <col width="14.7109375" customWidth="1" style="1" min="6" max="9"/>
-    <col width="11.5703125" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9.140625" customWidth="1" style="1" min="11" max="16384"/>
+    <col width="1.5546875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="33.33203125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="15.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="14.6640625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="23.6640625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="14.6640625" customWidth="1" style="1" min="6" max="9"/>
+    <col width="11.5546875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.109375" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B1" s="90" t="inlineStr">
+      <c r="B1" s="91" t="inlineStr">
         <is>
           <t>CADASTRO SUPERMERCADOS JOANIN LTDA</t>
         </is>
       </c>
-      <c r="C1" s="91" t="n"/>
-      <c r="D1" s="91" t="n"/>
-      <c r="E1" s="91" t="n"/>
-      <c r="F1" s="91" t="n"/>
-      <c r="G1" s="91" t="n"/>
-      <c r="H1" s="91" t="n"/>
-      <c r="I1" s="91" t="n"/>
-      <c r="J1" s="92" t="n"/>
+      <c r="C1" s="92" t="n"/>
+      <c r="D1" s="92" t="n"/>
+      <c r="E1" s="92" t="n"/>
+      <c r="F1" s="92" t="n"/>
+      <c r="G1" s="92" t="n"/>
+      <c r="H1" s="92" t="n"/>
+      <c r="I1" s="92" t="n"/>
+      <c r="J1" s="93" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1" thickBot="1"/>
     <row r="3" ht="18" customHeight="1">
-      <c r="B3" s="38" t="inlineStr">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>INFORMAÇÕES FORNECEDOR</t>
         </is>
       </c>
-      <c r="C3" s="93" t="n"/>
-      <c r="D3" s="93" t="n"/>
-      <c r="E3" s="93" t="n"/>
-      <c r="F3" s="93" t="n"/>
-      <c r="G3" s="93" t="n"/>
-      <c r="H3" s="93" t="n"/>
-      <c r="I3" s="93" t="n"/>
-      <c r="J3" s="94" t="n"/>
+      <c r="C3" s="94" t="n"/>
+      <c r="D3" s="94" t="n"/>
+      <c r="E3" s="94" t="n"/>
+      <c r="F3" s="94" t="n"/>
+      <c r="G3" s="94" t="n"/>
+      <c r="H3" s="94" t="n"/>
+      <c r="I3" s="94" t="n"/>
+      <c r="J3" s="95" t="n"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="B4" s="95" t="inlineStr">
+      <c r="B4" s="96" t="inlineStr">
         <is>
           <t>É FORNECEDOR NOVO (    ) SIM     (   ) NÃO                           -                            FOI FEITO CONTRATO (   ) SIM      (    ) NÃO</t>
         </is>
       </c>
-      <c r="C4" s="96" t="n"/>
-      <c r="D4" s="96" t="n"/>
-      <c r="E4" s="96" t="n"/>
-      <c r="F4" s="96" t="n"/>
-      <c r="G4" s="96" t="n"/>
-      <c r="H4" s="96" t="n"/>
-      <c r="I4" s="96" t="n"/>
-      <c r="J4" s="97" t="n"/>
+      <c r="C4" s="97" t="n"/>
+      <c r="D4" s="97" t="n"/>
+      <c r="E4" s="97" t="n"/>
+      <c r="F4" s="97" t="n"/>
+      <c r="G4" s="97" t="n"/>
+      <c r="H4" s="97" t="n"/>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="98" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="B5" s="2" t="inlineStr">
@@ -2751,18 +2827,18 @@
           <t>RAZÃO SOCIAL:</t>
         </is>
       </c>
-      <c r="C5" s="98" t="inlineStr">
+      <c r="C5" s="99" t="inlineStr">
         <is>
           <t>NETFEIRA PONTOCOM LTDA</t>
         </is>
       </c>
-      <c r="D5" s="99" t="n"/>
-      <c r="E5" s="99" t="n"/>
-      <c r="F5" s="99" t="n"/>
-      <c r="G5" s="99" t="n"/>
-      <c r="H5" s="99" t="n"/>
-      <c r="I5" s="99" t="n"/>
-      <c r="J5" s="100" t="n"/>
+      <c r="D5" s="100" t="n"/>
+      <c r="E5" s="100" t="n"/>
+      <c r="F5" s="100" t="n"/>
+      <c r="G5" s="100" t="n"/>
+      <c r="H5" s="100" t="n"/>
+      <c r="I5" s="100" t="n"/>
+      <c r="J5" s="101" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="B6" s="3" t="inlineStr">
@@ -2770,26 +2846,26 @@
           <t>CNPJ:</t>
         </is>
       </c>
-      <c r="C6" s="51" t="inlineStr">
+      <c r="C6" s="37" t="inlineStr">
         <is>
           <t>03.974.724/0001-24</t>
         </is>
       </c>
-      <c r="D6" s="101" t="n"/>
+      <c r="D6" s="102" t="n"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t>INSC. ESTADUAL:</t>
         </is>
       </c>
-      <c r="F6" s="72" t="inlineStr">
+      <c r="F6" s="38" t="inlineStr">
         <is>
           <t>115.951.284-113</t>
         </is>
       </c>
-      <c r="G6" s="99" t="n"/>
-      <c r="H6" s="99" t="n"/>
-      <c r="I6" s="99" t="n"/>
-      <c r="J6" s="101" t="n"/>
+      <c r="G6" s="100" t="n"/>
+      <c r="H6" s="100" t="n"/>
+      <c r="I6" s="100" t="n"/>
+      <c r="J6" s="102" t="n"/>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="B7" s="5" t="inlineStr">
@@ -2797,26 +2873,26 @@
           <t>ENDEREÇO:</t>
         </is>
       </c>
-      <c r="C7" s="71" t="inlineStr">
+      <c r="C7" s="44" t="inlineStr">
         <is>
           <t>AVENIDA DOUTOR GASTÃO VIDIGAL</t>
         </is>
       </c>
-      <c r="D7" s="101" t="n"/>
+      <c r="D7" s="102" t="n"/>
       <c r="E7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Nº </t>
         </is>
       </c>
-      <c r="F7" s="72" t="inlineStr">
+      <c r="F7" s="38" t="inlineStr">
         <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="G7" s="99" t="n"/>
-      <c r="H7" s="99" t="n"/>
-      <c r="I7" s="99" t="n"/>
-      <c r="J7" s="101" t="n"/>
+      <c r="G7" s="100" t="n"/>
+      <c r="H7" s="100" t="n"/>
+      <c r="I7" s="100" t="n"/>
+      <c r="J7" s="102" t="n"/>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="B8" s="3" t="inlineStr">
@@ -2824,26 +2900,26 @@
           <t xml:space="preserve">BAIRRO: </t>
         </is>
       </c>
-      <c r="C8" s="51" t="inlineStr">
+      <c r="C8" s="37" t="inlineStr">
         <is>
           <t>VILA LEOPOLDINA</t>
         </is>
       </c>
-      <c r="D8" s="101" t="n"/>
+      <c r="D8" s="102" t="n"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t>CEP:</t>
         </is>
       </c>
-      <c r="F8" s="72" t="inlineStr">
+      <c r="F8" s="38" t="inlineStr">
         <is>
           <t>5316900</t>
         </is>
       </c>
-      <c r="G8" s="99" t="n"/>
-      <c r="H8" s="99" t="n"/>
-      <c r="I8" s="99" t="n"/>
-      <c r="J8" s="101" t="n"/>
+      <c r="G8" s="100" t="n"/>
+      <c r="H8" s="100" t="n"/>
+      <c r="I8" s="100" t="n"/>
+      <c r="J8" s="102" t="n"/>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="B9" s="5" t="inlineStr">
@@ -2851,26 +2927,26 @@
           <t>CIDADE:</t>
         </is>
       </c>
-      <c r="C9" s="34" t="inlineStr">
+      <c r="C9" s="45" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="D9" s="101" t="n"/>
+      <c r="D9" s="102" t="n"/>
       <c r="E9" s="6" t="inlineStr">
         <is>
           <t>ESTADO:</t>
         </is>
       </c>
-      <c r="F9" s="71" t="inlineStr">
+      <c r="F9" s="44" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="G9" s="99" t="n"/>
-      <c r="H9" s="99" t="n"/>
-      <c r="I9" s="99" t="n"/>
-      <c r="J9" s="101" t="n"/>
+      <c r="G9" s="100" t="n"/>
+      <c r="H9" s="100" t="n"/>
+      <c r="I9" s="100" t="n"/>
+      <c r="J9" s="102" t="n"/>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="B10" s="3" t="inlineStr">
@@ -2878,22 +2954,22 @@
           <t>COMPLEMENTO:</t>
         </is>
       </c>
-      <c r="C10" s="51" t="inlineStr">
+      <c r="C10" s="37" t="inlineStr">
         <is>
           <t>P.AMA BOX 61/62,AMB BOX 3,4</t>
         </is>
       </c>
-      <c r="D10" s="101" t="n"/>
+      <c r="D10" s="102" t="n"/>
       <c r="E10" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">PRAZO DE PGTO </t>
         </is>
       </c>
-      <c r="F10" s="102" t="n"/>
-      <c r="G10" s="99" t="n"/>
-      <c r="H10" s="99" t="n"/>
-      <c r="I10" s="99" t="n"/>
-      <c r="J10" s="100" t="n"/>
+      <c r="F10" s="103" t="n"/>
+      <c r="G10" s="100" t="n"/>
+      <c r="H10" s="100" t="n"/>
+      <c r="I10" s="100" t="n"/>
+      <c r="J10" s="101" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="B11" s="3" t="inlineStr">
@@ -2901,18 +2977,18 @@
           <t>CONTATO :</t>
         </is>
       </c>
-      <c r="C11" s="51" t="n"/>
-      <c r="D11" s="101" t="n"/>
+      <c r="C11" s="37" t="n"/>
+      <c r="D11" s="102" t="n"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t>TELEFONE :</t>
         </is>
       </c>
-      <c r="F11" s="75" t="n"/>
-      <c r="G11" s="76" t="n"/>
-      <c r="H11" s="76" t="n"/>
-      <c r="I11" s="76" t="n"/>
-      <c r="J11" s="77" t="n"/>
+      <c r="F11" s="47" t="n"/>
+      <c r="G11" s="48" t="n"/>
+      <c r="H11" s="48" t="n"/>
+      <c r="I11" s="48" t="n"/>
+      <c r="J11" s="49" t="n"/>
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="B12" s="23" t="inlineStr">
@@ -2920,37 +2996,37 @@
           <t>E-MAIL PARA ENVIO XML</t>
         </is>
       </c>
-      <c r="C12" s="78" t="n"/>
-      <c r="D12" s="101" t="n"/>
+      <c r="C12" s="50" t="n"/>
+      <c r="D12" s="102" t="n"/>
       <c r="E12" s="24" t="inlineStr">
         <is>
           <t>E-MAIL PARA FINANCEIRO</t>
         </is>
       </c>
-      <c r="F12" s="80" t="n"/>
-      <c r="G12" s="99" t="n"/>
-      <c r="H12" s="99" t="n"/>
-      <c r="I12" s="99" t="n"/>
-      <c r="J12" s="101" t="n"/>
+      <c r="F12" s="52" t="n"/>
+      <c r="G12" s="100" t="n"/>
+      <c r="H12" s="100" t="n"/>
+      <c r="I12" s="100" t="n"/>
+      <c r="J12" s="102" t="n"/>
     </row>
     <row r="13" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="67" t="inlineStr">
+      <c r="B13" s="40" t="inlineStr">
         <is>
           <t>(    )COM INDENIZAÇÃO - FORNECEDOR ACEITA NOTA FISCAL DE DEVOLUÇÃO</t>
         </is>
       </c>
-      <c r="C13" s="103" t="n"/>
-      <c r="D13" s="103" t="n"/>
-      <c r="E13" s="103" t="n"/>
-      <c r="F13" s="70" t="inlineStr">
+      <c r="C13" s="104" t="n"/>
+      <c r="D13" s="104" t="n"/>
+      <c r="E13" s="104" t="n"/>
+      <c r="F13" s="43" t="inlineStr">
         <is>
           <t>(    ) SEM INDENIZAÇÃO  -  FORNECEDOR NÃO ACEITA NOTA FISCAL DEVOLUÇÃO</t>
         </is>
       </c>
-      <c r="G13" s="104" t="n"/>
-      <c r="H13" s="104" t="n"/>
-      <c r="I13" s="104" t="n"/>
-      <c r="J13" s="105" t="n"/>
+      <c r="G13" s="105" t="n"/>
+      <c r="H13" s="105" t="n"/>
+      <c r="I13" s="105" t="n"/>
+      <c r="J13" s="106" t="n"/>
     </row>
     <row r="14" ht="18" customHeight="1" thickBot="1">
       <c r="B14" s="9" t="n"/>
@@ -2961,19 +3037,19 @@
       <c r="I14" s="10" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="B15" s="38" t="inlineStr">
+      <c r="B15" s="28" t="inlineStr">
         <is>
           <t>DADOS DO PRODUTO - UNIDADE</t>
         </is>
       </c>
-      <c r="C15" s="93" t="n"/>
-      <c r="D15" s="93" t="n"/>
-      <c r="E15" s="93" t="n"/>
-      <c r="F15" s="93" t="n"/>
-      <c r="G15" s="93" t="n"/>
-      <c r="H15" s="93" t="n"/>
-      <c r="I15" s="93" t="n"/>
-      <c r="J15" s="94" t="n"/>
+      <c r="C15" s="94" t="n"/>
+      <c r="D15" s="94" t="n"/>
+      <c r="E15" s="94" t="n"/>
+      <c r="F15" s="94" t="n"/>
+      <c r="G15" s="94" t="n"/>
+      <c r="H15" s="94" t="n"/>
+      <c r="I15" s="94" t="n"/>
+      <c r="J15" s="95" t="n"/>
     </row>
     <row r="16" ht="18" customHeight="1">
       <c r="B16" s="3" t="inlineStr">
@@ -2981,14 +3057,18 @@
           <t>DESCRIÇÃO:</t>
         </is>
       </c>
-      <c r="C16" s="32" t="n"/>
-      <c r="D16" s="99" t="n"/>
-      <c r="E16" s="99" t="n"/>
-      <c r="F16" s="99" t="n"/>
-      <c r="G16" s="99" t="n"/>
-      <c r="H16" s="99" t="n"/>
-      <c r="I16" s="99" t="n"/>
-      <c r="J16" s="101" t="n"/>
+      <c r="C16" s="53" t="inlineStr">
+        <is>
+          <t>POLPINHA DE ACAI (100G)</t>
+        </is>
+      </c>
+      <c r="D16" s="100" t="n"/>
+      <c r="E16" s="100" t="n"/>
+      <c r="F16" s="100" t="n"/>
+      <c r="G16" s="100" t="n"/>
+      <c r="H16" s="100" t="n"/>
+      <c r="I16" s="100" t="n"/>
+      <c r="J16" s="102" t="n"/>
       <c r="N16" s="11" t="n"/>
     </row>
     <row r="17" ht="18" customHeight="1">
@@ -2997,22 +3077,26 @@
           <t>CÓD DE BARRAS:</t>
         </is>
       </c>
-      <c r="C17" s="65" t="n"/>
-      <c r="D17" s="101" t="n"/>
+      <c r="C17" s="55" t="inlineStr">
+        <is>
+          <t>7896519212606</t>
+        </is>
+      </c>
+      <c r="D17" s="102" t="n"/>
       <c r="E17" s="12" t="inlineStr">
         <is>
           <t>MARCA:</t>
         </is>
       </c>
-      <c r="F17" s="65" t="inlineStr">
+      <c r="F17" s="55" t="inlineStr">
         <is>
           <t>DE MARCHI</t>
         </is>
       </c>
-      <c r="G17" s="99" t="n"/>
-      <c r="H17" s="99" t="n"/>
-      <c r="I17" s="99" t="n"/>
-      <c r="J17" s="101" t="n"/>
+      <c r="G17" s="100" t="n"/>
+      <c r="H17" s="100" t="n"/>
+      <c r="I17" s="100" t="n"/>
+      <c r="J17" s="102" t="n"/>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="B18" s="3" t="inlineStr">
@@ -3020,18 +3104,26 @@
           <t>PESO LIQUIDO KG:</t>
         </is>
       </c>
-      <c r="C18" s="51" t="n"/>
-      <c r="D18" s="101" t="n"/>
+      <c r="C18" s="37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D18" s="102" t="n"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
           <t>PESO BRUTO KG:</t>
         </is>
       </c>
-      <c r="F18" s="32" t="n"/>
-      <c r="G18" s="99" t="n"/>
-      <c r="H18" s="99" t="n"/>
-      <c r="I18" s="99" t="n"/>
-      <c r="J18" s="101" t="n"/>
+      <c r="F18" s="53" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G18" s="100" t="n"/>
+      <c r="H18" s="100" t="n"/>
+      <c r="I18" s="100" t="n"/>
+      <c r="J18" s="102" t="n"/>
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="B19" s="5" t="inlineStr">
@@ -3039,14 +3131,18 @@
           <t>COMPRIMENTO EM CM:</t>
         </is>
       </c>
-      <c r="C19" s="34" t="n"/>
-      <c r="D19" s="99" t="n"/>
-      <c r="E19" s="99" t="n"/>
-      <c r="F19" s="99" t="n"/>
-      <c r="G19" s="99" t="n"/>
-      <c r="H19" s="99" t="n"/>
-      <c r="I19" s="99" t="n"/>
-      <c r="J19" s="101" t="n"/>
+      <c r="C19" s="45" t="inlineStr">
+        <is>
+          <t>0.185</t>
+        </is>
+      </c>
+      <c r="D19" s="100" t="n"/>
+      <c r="E19" s="100" t="n"/>
+      <c r="F19" s="100" t="n"/>
+      <c r="G19" s="100" t="n"/>
+      <c r="H19" s="100" t="n"/>
+      <c r="I19" s="100" t="n"/>
+      <c r="J19" s="102" t="n"/>
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="B20" s="3" t="inlineStr">
@@ -3054,14 +3150,18 @@
           <t>LARGURA EM CM:</t>
         </is>
       </c>
-      <c r="C20" s="57" t="n"/>
-      <c r="D20" s="99" t="n"/>
-      <c r="E20" s="99" t="n"/>
-      <c r="F20" s="99" t="n"/>
-      <c r="G20" s="99" t="n"/>
-      <c r="H20" s="99" t="n"/>
-      <c r="I20" s="99" t="n"/>
-      <c r="J20" s="101" t="n"/>
+      <c r="C20" s="58" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="D20" s="100" t="n"/>
+      <c r="E20" s="100" t="n"/>
+      <c r="F20" s="100" t="n"/>
+      <c r="G20" s="100" t="n"/>
+      <c r="H20" s="100" t="n"/>
+      <c r="I20" s="100" t="n"/>
+      <c r="J20" s="102" t="n"/>
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="B21" s="5" t="inlineStr">
@@ -3069,14 +3169,18 @@
           <t>ALTURA EM CM:</t>
         </is>
       </c>
-      <c r="C21" s="59" t="n"/>
-      <c r="D21" s="99" t="n"/>
-      <c r="E21" s="99" t="n"/>
-      <c r="F21" s="99" t="n"/>
-      <c r="G21" s="99" t="n"/>
-      <c r="H21" s="99" t="n"/>
-      <c r="I21" s="99" t="n"/>
-      <c r="J21" s="101" t="n"/>
+      <c r="C21" s="60" t="inlineStr">
+        <is>
+          <t>0.112</t>
+        </is>
+      </c>
+      <c r="D21" s="100" t="n"/>
+      <c r="E21" s="100" t="n"/>
+      <c r="F21" s="100" t="n"/>
+      <c r="G21" s="100" t="n"/>
+      <c r="H21" s="100" t="n"/>
+      <c r="I21" s="100" t="n"/>
+      <c r="J21" s="102" t="n"/>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="B22" s="3" t="inlineStr">
@@ -3084,14 +3188,14 @@
           <t>VALIDADE EM DIAS:</t>
         </is>
       </c>
-      <c r="C22" s="32" t="n"/>
-      <c r="D22" s="99" t="n"/>
-      <c r="E22" s="99" t="n"/>
-      <c r="F22" s="99" t="n"/>
-      <c r="G22" s="99" t="n"/>
-      <c r="H22" s="99" t="n"/>
-      <c r="I22" s="99" t="n"/>
-      <c r="J22" s="101" t="n"/>
+      <c r="C22" s="53" t="n"/>
+      <c r="D22" s="100" t="n"/>
+      <c r="E22" s="100" t="n"/>
+      <c r="F22" s="100" t="n"/>
+      <c r="G22" s="100" t="n"/>
+      <c r="H22" s="100" t="n"/>
+      <c r="I22" s="100" t="n"/>
+      <c r="J22" s="102" t="n"/>
     </row>
     <row r="23" ht="18" customHeight="1" thickBot="1">
       <c r="B23" s="7" t="inlineStr">
@@ -3099,34 +3203,38 @@
           <t>COD PRODUTO FORNECEDOR:</t>
         </is>
       </c>
-      <c r="C23" s="25" t="n"/>
-      <c r="D23" s="106" t="n"/>
-      <c r="E23" s="107" t="n"/>
-      <c r="F23" s="61" t="inlineStr">
+      <c r="C23" s="90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D23" s="107" t="n"/>
+      <c r="E23" s="108" t="n"/>
+      <c r="F23" s="63" t="inlineStr">
         <is>
           <t>(É OBRIGADOTÓRIO QUE O CÓDIGO DO FORNECEDOR SEJA O MESMO DO XML)</t>
         </is>
       </c>
-      <c r="G23" s="106" t="n"/>
-      <c r="H23" s="106" t="n"/>
-      <c r="I23" s="106" t="n"/>
-      <c r="J23" s="107" t="n"/>
+      <c r="G23" s="107" t="n"/>
+      <c r="H23" s="107" t="n"/>
+      <c r="I23" s="107" t="n"/>
+      <c r="J23" s="108" t="n"/>
     </row>
     <row r="24" ht="18" customHeight="1" thickBot="1"/>
     <row r="25" ht="18" customHeight="1">
-      <c r="B25" s="38" t="inlineStr">
+      <c r="B25" s="28" t="inlineStr">
         <is>
           <t>DADOS DO PRODUTO - CAIXA</t>
         </is>
       </c>
-      <c r="C25" s="93" t="n"/>
-      <c r="D25" s="93" t="n"/>
-      <c r="E25" s="93" t="n"/>
-      <c r="F25" s="93" t="n"/>
-      <c r="G25" s="93" t="n"/>
-      <c r="H25" s="93" t="n"/>
-      <c r="I25" s="93" t="n"/>
-      <c r="J25" s="94" t="n"/>
+      <c r="C25" s="94" t="n"/>
+      <c r="D25" s="94" t="n"/>
+      <c r="E25" s="94" t="n"/>
+      <c r="F25" s="94" t="n"/>
+      <c r="G25" s="94" t="n"/>
+      <c r="H25" s="94" t="n"/>
+      <c r="I25" s="94" t="n"/>
+      <c r="J25" s="95" t="n"/>
     </row>
     <row r="26" ht="18" customHeight="1">
       <c r="B26" s="3" t="inlineStr">
@@ -3134,14 +3242,18 @@
           <t>TIPO DE EMBALAGEM:</t>
         </is>
       </c>
-      <c r="C26" s="32" t="n"/>
-      <c r="D26" s="99" t="n"/>
-      <c r="E26" s="99" t="n"/>
-      <c r="F26" s="99" t="n"/>
-      <c r="G26" s="99" t="n"/>
-      <c r="H26" s="99" t="n"/>
-      <c r="I26" s="99" t="n"/>
-      <c r="J26" s="101" t="n"/>
+      <c r="C26" s="53" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D26" s="100" t="n"/>
+      <c r="E26" s="100" t="n"/>
+      <c r="F26" s="100" t="n"/>
+      <c r="G26" s="100" t="n"/>
+      <c r="H26" s="100" t="n"/>
+      <c r="I26" s="100" t="n"/>
+      <c r="J26" s="102" t="n"/>
     </row>
     <row r="27" ht="18" customHeight="1">
       <c r="B27" s="5" t="inlineStr">
@@ -3149,14 +3261,18 @@
           <t>QUANTIDADE NA CAIXA:</t>
         </is>
       </c>
-      <c r="C27" s="34" t="n"/>
-      <c r="D27" s="99" t="n"/>
-      <c r="E27" s="99" t="n"/>
-      <c r="F27" s="99" t="n"/>
-      <c r="G27" s="99" t="n"/>
-      <c r="H27" s="99" t="n"/>
-      <c r="I27" s="99" t="n"/>
-      <c r="J27" s="101" t="n"/>
+      <c r="C27" s="45" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D27" s="100" t="n"/>
+      <c r="E27" s="100" t="n"/>
+      <c r="F27" s="100" t="n"/>
+      <c r="G27" s="100" t="n"/>
+      <c r="H27" s="100" t="n"/>
+      <c r="I27" s="100" t="n"/>
+      <c r="J27" s="102" t="n"/>
     </row>
     <row r="28" ht="18" customHeight="1">
       <c r="B28" s="3" t="inlineStr">
@@ -3164,14 +3280,18 @@
           <t>CÓD DUN:</t>
         </is>
       </c>
-      <c r="C28" s="63" t="n"/>
-      <c r="D28" s="99" t="n"/>
-      <c r="E28" s="99" t="n"/>
-      <c r="F28" s="99" t="n"/>
-      <c r="G28" s="99" t="n"/>
-      <c r="H28" s="99" t="n"/>
-      <c r="I28" s="99" t="n"/>
-      <c r="J28" s="101" t="n"/>
+      <c r="C28" s="65" t="inlineStr">
+        <is>
+          <t>67896519212608</t>
+        </is>
+      </c>
+      <c r="D28" s="100" t="n"/>
+      <c r="E28" s="100" t="n"/>
+      <c r="F28" s="100" t="n"/>
+      <c r="G28" s="100" t="n"/>
+      <c r="H28" s="100" t="n"/>
+      <c r="I28" s="100" t="n"/>
+      <c r="J28" s="102" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1">
       <c r="B29" s="5" t="inlineStr">
@@ -3179,14 +3299,18 @@
           <t>PESO BRUTO KG:</t>
         </is>
       </c>
-      <c r="C29" s="34" t="n"/>
-      <c r="D29" s="99" t="n"/>
-      <c r="E29" s="99" t="n"/>
-      <c r="F29" s="99" t="n"/>
-      <c r="G29" s="99" t="n"/>
-      <c r="H29" s="99" t="n"/>
-      <c r="I29" s="99" t="n"/>
-      <c r="J29" s="101" t="n"/>
+      <c r="C29" s="45" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="D29" s="100" t="n"/>
+      <c r="E29" s="100" t="n"/>
+      <c r="F29" s="100" t="n"/>
+      <c r="G29" s="100" t="n"/>
+      <c r="H29" s="100" t="n"/>
+      <c r="I29" s="100" t="n"/>
+      <c r="J29" s="102" t="n"/>
     </row>
     <row r="30" ht="18" customHeight="1">
       <c r="B30" s="3" t="inlineStr">
@@ -3194,14 +3318,18 @@
           <t>PESO LIQUIDO KG:</t>
         </is>
       </c>
-      <c r="C30" s="32" t="n"/>
-      <c r="D30" s="99" t="n"/>
-      <c r="E30" s="99" t="n"/>
-      <c r="F30" s="99" t="n"/>
-      <c r="G30" s="99" t="n"/>
-      <c r="H30" s="99" t="n"/>
-      <c r="I30" s="99" t="n"/>
-      <c r="J30" s="101" t="n"/>
+      <c r="C30" s="53" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D30" s="100" t="n"/>
+      <c r="E30" s="100" t="n"/>
+      <c r="F30" s="100" t="n"/>
+      <c r="G30" s="100" t="n"/>
+      <c r="H30" s="100" t="n"/>
+      <c r="I30" s="100" t="n"/>
+      <c r="J30" s="102" t="n"/>
     </row>
     <row r="31" ht="18" customHeight="1">
       <c r="B31" s="5" t="inlineStr">
@@ -3209,14 +3337,18 @@
           <t>COMPRIMENTO EM CM:</t>
         </is>
       </c>
-      <c r="C31" s="34" t="n"/>
-      <c r="D31" s="99" t="n"/>
-      <c r="E31" s="99" t="n"/>
-      <c r="F31" s="99" t="n"/>
-      <c r="G31" s="99" t="n"/>
-      <c r="H31" s="99" t="n"/>
-      <c r="I31" s="99" t="n"/>
-      <c r="J31" s="101" t="n"/>
+      <c r="C31" s="45" t="inlineStr">
+        <is>
+          <t>0.185</t>
+        </is>
+      </c>
+      <c r="D31" s="100" t="n"/>
+      <c r="E31" s="100" t="n"/>
+      <c r="F31" s="100" t="n"/>
+      <c r="G31" s="100" t="n"/>
+      <c r="H31" s="100" t="n"/>
+      <c r="I31" s="100" t="n"/>
+      <c r="J31" s="102" t="n"/>
     </row>
     <row r="32" ht="18" customHeight="1">
       <c r="B32" s="3" t="inlineStr">
@@ -3224,14 +3356,18 @@
           <t>LARGURA EM CM:</t>
         </is>
       </c>
-      <c r="C32" s="32" t="n"/>
-      <c r="D32" s="99" t="n"/>
-      <c r="E32" s="99" t="n"/>
-      <c r="F32" s="99" t="n"/>
-      <c r="G32" s="99" t="n"/>
-      <c r="H32" s="99" t="n"/>
-      <c r="I32" s="99" t="n"/>
-      <c r="J32" s="101" t="n"/>
+      <c r="C32" s="53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="D32" s="100" t="n"/>
+      <c r="E32" s="100" t="n"/>
+      <c r="F32" s="100" t="n"/>
+      <c r="G32" s="100" t="n"/>
+      <c r="H32" s="100" t="n"/>
+      <c r="I32" s="100" t="n"/>
+      <c r="J32" s="102" t="n"/>
     </row>
     <row r="33" ht="18" customHeight="1" thickBot="1">
       <c r="B33" s="7" t="inlineStr">
@@ -3239,41 +3375,45 @@
           <t>ALTURA EM CM:</t>
         </is>
       </c>
-      <c r="C33" s="25" t="n"/>
-      <c r="D33" s="106" t="n"/>
-      <c r="E33" s="106" t="n"/>
-      <c r="F33" s="106" t="n"/>
-      <c r="G33" s="106" t="n"/>
-      <c r="H33" s="106" t="n"/>
-      <c r="I33" s="106" t="n"/>
-      <c r="J33" s="107" t="n"/>
+      <c r="C33" s="62" t="inlineStr">
+        <is>
+          <t>0.112</t>
+        </is>
+      </c>
+      <c r="D33" s="107" t="n"/>
+      <c r="E33" s="107" t="n"/>
+      <c r="F33" s="107" t="n"/>
+      <c r="G33" s="107" t="n"/>
+      <c r="H33" s="107" t="n"/>
+      <c r="I33" s="107" t="n"/>
+      <c r="J33" s="108" t="n"/>
     </row>
     <row r="34" ht="18" customHeight="1" thickBot="1"/>
     <row r="35" ht="18" customHeight="1">
-      <c r="B35" s="38" t="inlineStr">
+      <c r="B35" s="28" t="inlineStr">
         <is>
           <t>CUSTO DO PRODUTO - UNITÁRIO</t>
         </is>
       </c>
-      <c r="C35" s="108" t="n"/>
-      <c r="D35" s="108" t="n"/>
-      <c r="E35" s="108" t="n"/>
-      <c r="F35" s="108" t="n"/>
-      <c r="G35" s="108" t="n"/>
-      <c r="H35" s="108" t="n"/>
-      <c r="I35" s="108" t="n"/>
-      <c r="J35" s="109" t="n"/>
+      <c r="C35" s="109" t="n"/>
+      <c r="D35" s="109" t="n"/>
+      <c r="E35" s="109" t="n"/>
+      <c r="F35" s="109" t="n"/>
+      <c r="G35" s="109" t="n"/>
+      <c r="H35" s="109" t="n"/>
+      <c r="I35" s="109" t="n"/>
+      <c r="J35" s="110" t="n"/>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="B36" s="110" t="n"/>
-      <c r="C36" s="111" t="n"/>
-      <c r="D36" s="111" t="n"/>
-      <c r="E36" s="111" t="n"/>
-      <c r="F36" s="111" t="n"/>
-      <c r="G36" s="111" t="n"/>
-      <c r="H36" s="111" t="n"/>
-      <c r="I36" s="111" t="n"/>
-      <c r="J36" s="112" t="n"/>
+      <c r="B36" s="111" t="n"/>
+      <c r="C36" s="112" t="n"/>
+      <c r="D36" s="112" t="n"/>
+      <c r="E36" s="112" t="n"/>
+      <c r="F36" s="112" t="n"/>
+      <c r="G36" s="112" t="n"/>
+      <c r="H36" s="112" t="n"/>
+      <c r="I36" s="112" t="n"/>
+      <c r="J36" s="113" t="n"/>
     </row>
     <row r="37" ht="18" customHeight="1">
       <c r="B37" s="17" t="inlineStr">
@@ -3281,18 +3421,18 @@
           <t>CUSTO SEM ST:</t>
         </is>
       </c>
-      <c r="C37" s="51" t="n"/>
-      <c r="D37" s="101" t="n"/>
-      <c r="E37" s="52" t="inlineStr">
+      <c r="C37" s="37" t="n"/>
+      <c r="D37" s="102" t="n"/>
+      <c r="E37" s="70" t="inlineStr">
         <is>
           <t>CUSTO COM ST:</t>
         </is>
       </c>
-      <c r="F37" s="113" t="n"/>
-      <c r="G37" s="51" t="n"/>
-      <c r="H37" s="101" t="n"/>
-      <c r="I37" s="52" t="n"/>
-      <c r="J37" s="113" t="n"/>
+      <c r="F37" s="114" t="n"/>
+      <c r="G37" s="37" t="n"/>
+      <c r="H37" s="102" t="n"/>
+      <c r="I37" s="70" t="n"/>
+      <c r="J37" s="114" t="n"/>
     </row>
     <row r="38" ht="18" customHeight="1">
       <c r="B38" s="17" t="inlineStr">
@@ -3300,18 +3440,18 @@
           <t>VALOR DA ST:</t>
         </is>
       </c>
-      <c r="C38" s="51" t="n"/>
-      <c r="D38" s="101" t="n"/>
-      <c r="E38" s="52" t="inlineStr">
+      <c r="C38" s="37" t="n"/>
+      <c r="D38" s="102" t="n"/>
+      <c r="E38" s="70" t="inlineStr">
         <is>
           <t>CUSTO UNITÁRIO FINAL:</t>
         </is>
       </c>
-      <c r="F38" s="113" t="n"/>
-      <c r="G38" s="51" t="n"/>
-      <c r="H38" s="101" t="n"/>
-      <c r="I38" s="52" t="n"/>
-      <c r="J38" s="113" t="n"/>
+      <c r="F38" s="114" t="n"/>
+      <c r="G38" s="37" t="n"/>
+      <c r="H38" s="102" t="n"/>
+      <c r="I38" s="70" t="n"/>
+      <c r="J38" s="114" t="n"/>
     </row>
     <row r="39" ht="18" customHeight="1">
       <c r="B39" s="17" t="inlineStr">
@@ -3319,49 +3459,49 @@
           <t>VERBA:</t>
         </is>
       </c>
-      <c r="C39" s="51" t="n"/>
-      <c r="D39" s="101" t="n"/>
-      <c r="E39" s="52" t="inlineStr">
+      <c r="C39" s="37" t="n"/>
+      <c r="D39" s="102" t="n"/>
+      <c r="E39" s="70" t="inlineStr">
         <is>
           <t>MARGEM:</t>
         </is>
       </c>
-      <c r="F39" s="113" t="n"/>
-      <c r="G39" s="51" t="n"/>
-      <c r="H39" s="101" t="n"/>
-      <c r="I39" s="52" t="n"/>
-      <c r="J39" s="113" t="n"/>
+      <c r="F39" s="114" t="n"/>
+      <c r="G39" s="37" t="n"/>
+      <c r="H39" s="102" t="n"/>
+      <c r="I39" s="70" t="n"/>
+      <c r="J39" s="114" t="n"/>
     </row>
     <row r="40" ht="18" customHeight="1" thickBot="1">
       <c r="B40" s="18" t="n"/>
-      <c r="C40" s="53" t="n"/>
-      <c r="D40" s="107" t="n"/>
-      <c r="E40" s="54" t="inlineStr">
+      <c r="C40" s="71" t="n"/>
+      <c r="D40" s="108" t="n"/>
+      <c r="E40" s="72" t="inlineStr">
         <is>
           <t>VALOR DE VENDA:</t>
         </is>
       </c>
-      <c r="F40" s="114" t="n"/>
-      <c r="G40" s="53" t="n"/>
-      <c r="H40" s="107" t="n"/>
-      <c r="I40" s="54" t="n"/>
-      <c r="J40" s="114" t="n"/>
+      <c r="F40" s="115" t="n"/>
+      <c r="G40" s="71" t="n"/>
+      <c r="H40" s="108" t="n"/>
+      <c r="I40" s="72" t="n"/>
+      <c r="J40" s="115" t="n"/>
     </row>
     <row r="41" ht="18" customHeight="1" thickBot="1"/>
     <row r="42" ht="18" customHeight="1">
-      <c r="B42" s="38" t="inlineStr">
+      <c r="B42" s="28" t="inlineStr">
         <is>
           <t>DADOS PALLETIZAÇÃO</t>
         </is>
       </c>
-      <c r="C42" s="93" t="n"/>
-      <c r="D42" s="93" t="n"/>
-      <c r="E42" s="93" t="n"/>
-      <c r="F42" s="93" t="n"/>
-      <c r="G42" s="93" t="n"/>
-      <c r="H42" s="93" t="n"/>
-      <c r="I42" s="93" t="n"/>
-      <c r="J42" s="94" t="n"/>
+      <c r="C42" s="94" t="n"/>
+      <c r="D42" s="94" t="n"/>
+      <c r="E42" s="94" t="n"/>
+      <c r="F42" s="94" t="n"/>
+      <c r="G42" s="94" t="n"/>
+      <c r="H42" s="94" t="n"/>
+      <c r="I42" s="94" t="n"/>
+      <c r="J42" s="95" t="n"/>
     </row>
     <row r="43" ht="18" customHeight="1">
       <c r="B43" s="3" t="inlineStr">
@@ -3369,14 +3509,14 @@
           <t>LASTRO/CAMADA:</t>
         </is>
       </c>
-      <c r="C43" s="32" t="n"/>
-      <c r="D43" s="99" t="n"/>
-      <c r="E43" s="99" t="n"/>
-      <c r="F43" s="99" t="n"/>
-      <c r="G43" s="99" t="n"/>
-      <c r="H43" s="99" t="n"/>
-      <c r="I43" s="99" t="n"/>
-      <c r="J43" s="101" t="n"/>
+      <c r="C43" s="53" t="n"/>
+      <c r="D43" s="100" t="n"/>
+      <c r="E43" s="100" t="n"/>
+      <c r="F43" s="100" t="n"/>
+      <c r="G43" s="100" t="n"/>
+      <c r="H43" s="100" t="n"/>
+      <c r="I43" s="100" t="n"/>
+      <c r="J43" s="102" t="n"/>
     </row>
     <row r="44" ht="18" customHeight="1" thickBot="1">
       <c r="B44" s="7" t="inlineStr">
@@ -3384,30 +3524,30 @@
           <t>ALTURA:</t>
         </is>
       </c>
-      <c r="C44" s="25" t="n"/>
-      <c r="D44" s="106" t="n"/>
-      <c r="E44" s="106" t="n"/>
-      <c r="F44" s="106" t="n"/>
-      <c r="G44" s="106" t="n"/>
-      <c r="H44" s="106" t="n"/>
-      <c r="I44" s="106" t="n"/>
-      <c r="J44" s="107" t="n"/>
+      <c r="C44" s="62" t="n"/>
+      <c r="D44" s="107" t="n"/>
+      <c r="E44" s="107" t="n"/>
+      <c r="F44" s="107" t="n"/>
+      <c r="G44" s="107" t="n"/>
+      <c r="H44" s="107" t="n"/>
+      <c r="I44" s="107" t="n"/>
+      <c r="J44" s="108" t="n"/>
     </row>
     <row r="45" ht="18" customHeight="1" thickBot="1"/>
     <row r="46" ht="18" customHeight="1">
-      <c r="B46" s="38" t="inlineStr">
+      <c r="B46" s="28" t="inlineStr">
         <is>
           <t>INFORMAÇÕES FISCAIS</t>
         </is>
       </c>
-      <c r="C46" s="93" t="n"/>
-      <c r="D46" s="93" t="n"/>
-      <c r="E46" s="93" t="n"/>
-      <c r="F46" s="93" t="n"/>
-      <c r="G46" s="93" t="n"/>
-      <c r="H46" s="93" t="n"/>
-      <c r="I46" s="93" t="n"/>
-      <c r="J46" s="94" t="n"/>
+      <c r="C46" s="94" t="n"/>
+      <c r="D46" s="94" t="n"/>
+      <c r="E46" s="94" t="n"/>
+      <c r="F46" s="94" t="n"/>
+      <c r="G46" s="94" t="n"/>
+      <c r="H46" s="94" t="n"/>
+      <c r="I46" s="94" t="n"/>
+      <c r="J46" s="95" t="n"/>
     </row>
     <row r="47" ht="18" customHeight="1">
       <c r="B47" s="3" t="inlineStr">
@@ -3415,14 +3555,18 @@
           <t>NCM:</t>
         </is>
       </c>
-      <c r="C47" s="32" t="n"/>
-      <c r="D47" s="99" t="n"/>
-      <c r="E47" s="99" t="n"/>
-      <c r="F47" s="99" t="n"/>
-      <c r="G47" s="99" t="n"/>
-      <c r="H47" s="99" t="n"/>
-      <c r="I47" s="99" t="n"/>
-      <c r="J47" s="101" t="n"/>
+      <c r="C47" s="53" t="inlineStr">
+        <is>
+          <t>0811.90.00</t>
+        </is>
+      </c>
+      <c r="D47" s="100" t="n"/>
+      <c r="E47" s="100" t="n"/>
+      <c r="F47" s="100" t="n"/>
+      <c r="G47" s="100" t="n"/>
+      <c r="H47" s="100" t="n"/>
+      <c r="I47" s="100" t="n"/>
+      <c r="J47" s="102" t="n"/>
     </row>
     <row r="48" ht="18" customHeight="1">
       <c r="B48" s="5" t="inlineStr">
@@ -3430,14 +3574,18 @@
           <t>CEST:</t>
         </is>
       </c>
-      <c r="C48" s="34" t="n"/>
-      <c r="D48" s="99" t="n"/>
-      <c r="E48" s="99" t="n"/>
-      <c r="F48" s="99" t="n"/>
-      <c r="G48" s="99" t="n"/>
-      <c r="H48" s="99" t="n"/>
-      <c r="I48" s="99" t="n"/>
-      <c r="J48" s="101" t="n"/>
+      <c r="C48" s="45" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="D48" s="100" t="n"/>
+      <c r="E48" s="100" t="n"/>
+      <c r="F48" s="100" t="n"/>
+      <c r="G48" s="100" t="n"/>
+      <c r="H48" s="100" t="n"/>
+      <c r="I48" s="100" t="n"/>
+      <c r="J48" s="102" t="n"/>
     </row>
     <row r="49" ht="18" customHeight="1">
       <c r="B49" s="3" t="inlineStr">
@@ -3445,14 +3593,14 @@
           <t>IPI:</t>
         </is>
       </c>
-      <c r="C49" s="32" t="n"/>
-      <c r="D49" s="99" t="n"/>
-      <c r="E49" s="99" t="n"/>
-      <c r="F49" s="99" t="n"/>
-      <c r="G49" s="99" t="n"/>
-      <c r="H49" s="99" t="n"/>
-      <c r="I49" s="99" t="n"/>
-      <c r="J49" s="101" t="n"/>
+      <c r="C49" s="53" t="n"/>
+      <c r="D49" s="100" t="n"/>
+      <c r="E49" s="100" t="n"/>
+      <c r="F49" s="100" t="n"/>
+      <c r="G49" s="100" t="n"/>
+      <c r="H49" s="100" t="n"/>
+      <c r="I49" s="100" t="n"/>
+      <c r="J49" s="102" t="n"/>
     </row>
     <row r="50" ht="18" customHeight="1">
       <c r="B50" s="5" t="inlineStr">
@@ -3460,14 +3608,14 @@
           <t>ICMS ORIGEM:</t>
         </is>
       </c>
-      <c r="C50" s="44" t="n"/>
-      <c r="D50" s="99" t="n"/>
-      <c r="E50" s="99" t="n"/>
-      <c r="F50" s="99" t="n"/>
-      <c r="G50" s="99" t="n"/>
-      <c r="H50" s="99" t="n"/>
-      <c r="I50" s="99" t="n"/>
-      <c r="J50" s="101" t="n"/>
+      <c r="C50" s="75" t="n"/>
+      <c r="D50" s="100" t="n"/>
+      <c r="E50" s="100" t="n"/>
+      <c r="F50" s="100" t="n"/>
+      <c r="G50" s="100" t="n"/>
+      <c r="H50" s="100" t="n"/>
+      <c r="I50" s="100" t="n"/>
+      <c r="J50" s="102" t="n"/>
     </row>
     <row r="51" ht="18" customHeight="1">
       <c r="B51" s="3" t="inlineStr">
@@ -3475,18 +3623,18 @@
           <t>ICMS ENTRADA (SAIDA FORNEDOR):</t>
         </is>
       </c>
-      <c r="C51" s="46" t="n"/>
-      <c r="D51" s="101" t="n"/>
+      <c r="C51" s="77" t="n"/>
+      <c r="D51" s="102" t="n"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
           <t>CST ICMS</t>
         </is>
       </c>
-      <c r="F51" s="47" t="n"/>
-      <c r="G51" s="99" t="n"/>
-      <c r="H51" s="99" t="n"/>
-      <c r="I51" s="99" t="n"/>
-      <c r="J51" s="101" t="n"/>
+      <c r="F51" s="78" t="n"/>
+      <c r="G51" s="100" t="n"/>
+      <c r="H51" s="100" t="n"/>
+      <c r="I51" s="100" t="n"/>
+      <c r="J51" s="102" t="n"/>
     </row>
     <row r="52" ht="18" customHeight="1">
       <c r="B52" s="5" t="inlineStr">
@@ -3494,14 +3642,14 @@
           <t>REDUÇÃO DE ICMS:</t>
         </is>
       </c>
-      <c r="C52" s="49" t="n"/>
-      <c r="D52" s="99" t="n"/>
-      <c r="E52" s="99" t="n"/>
-      <c r="F52" s="99" t="n"/>
-      <c r="G52" s="99" t="n"/>
-      <c r="H52" s="99" t="n"/>
-      <c r="I52" s="99" t="n"/>
-      <c r="J52" s="101" t="n"/>
+      <c r="C52" s="80" t="n"/>
+      <c r="D52" s="100" t="n"/>
+      <c r="E52" s="100" t="n"/>
+      <c r="F52" s="100" t="n"/>
+      <c r="G52" s="100" t="n"/>
+      <c r="H52" s="100" t="n"/>
+      <c r="I52" s="100" t="n"/>
+      <c r="J52" s="102" t="n"/>
     </row>
     <row r="53" ht="18" customHeight="1">
       <c r="B53" s="3" t="inlineStr">
@@ -3509,14 +3657,14 @@
           <t>IVA%</t>
         </is>
       </c>
-      <c r="C53" s="32" t="n"/>
-      <c r="D53" s="99" t="n"/>
-      <c r="E53" s="99" t="n"/>
-      <c r="F53" s="99" t="n"/>
-      <c r="G53" s="99" t="n"/>
-      <c r="H53" s="99" t="n"/>
-      <c r="I53" s="99" t="n"/>
-      <c r="J53" s="101" t="n"/>
+      <c r="C53" s="53" t="n"/>
+      <c r="D53" s="100" t="n"/>
+      <c r="E53" s="100" t="n"/>
+      <c r="F53" s="100" t="n"/>
+      <c r="G53" s="100" t="n"/>
+      <c r="H53" s="100" t="n"/>
+      <c r="I53" s="100" t="n"/>
+      <c r="J53" s="102" t="n"/>
     </row>
     <row r="54" ht="18" customHeight="1">
       <c r="B54" s="5" t="inlineStr">
@@ -3524,14 +3672,14 @@
           <t>PAUTA%</t>
         </is>
       </c>
-      <c r="C54" s="34" t="n"/>
-      <c r="D54" s="99" t="n"/>
-      <c r="E54" s="99" t="n"/>
-      <c r="F54" s="99" t="n"/>
-      <c r="G54" s="99" t="n"/>
-      <c r="H54" s="99" t="n"/>
-      <c r="I54" s="99" t="n"/>
-      <c r="J54" s="101" t="n"/>
+      <c r="C54" s="45" t="n"/>
+      <c r="D54" s="100" t="n"/>
+      <c r="E54" s="100" t="n"/>
+      <c r="F54" s="100" t="n"/>
+      <c r="G54" s="100" t="n"/>
+      <c r="H54" s="100" t="n"/>
+      <c r="I54" s="100" t="n"/>
+      <c r="J54" s="102" t="n"/>
     </row>
     <row r="55" ht="18" customHeight="1">
       <c r="B55" s="3" t="inlineStr">
@@ -3539,18 +3687,18 @@
           <t>PIS%</t>
         </is>
       </c>
-      <c r="C55" s="42" t="n"/>
-      <c r="D55" s="101" t="n"/>
+      <c r="C55" s="73" t="n"/>
+      <c r="D55" s="102" t="n"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
           <t>CST PIS</t>
         </is>
       </c>
-      <c r="F55" s="42" t="n"/>
-      <c r="G55" s="99" t="n"/>
-      <c r="H55" s="99" t="n"/>
-      <c r="I55" s="99" t="n"/>
-      <c r="J55" s="101" t="n"/>
+      <c r="F55" s="73" t="n"/>
+      <c r="G55" s="100" t="n"/>
+      <c r="H55" s="100" t="n"/>
+      <c r="I55" s="100" t="n"/>
+      <c r="J55" s="102" t="n"/>
     </row>
     <row r="56" ht="18" customHeight="1" thickBot="1">
       <c r="B56" s="7" t="inlineStr">
@@ -3558,34 +3706,34 @@
           <t>COFINS%:</t>
         </is>
       </c>
-      <c r="C56" s="36" t="n"/>
-      <c r="D56" s="107" t="n"/>
+      <c r="C56" s="82" t="n"/>
+      <c r="D56" s="108" t="n"/>
       <c r="E56" s="8" t="inlineStr">
         <is>
           <t>CST COFINS</t>
         </is>
       </c>
-      <c r="F56" s="36" t="n"/>
-      <c r="G56" s="106" t="n"/>
-      <c r="H56" s="106" t="n"/>
-      <c r="I56" s="106" t="n"/>
-      <c r="J56" s="107" t="n"/>
+      <c r="F56" s="82" t="n"/>
+      <c r="G56" s="107" t="n"/>
+      <c r="H56" s="107" t="n"/>
+      <c r="I56" s="107" t="n"/>
+      <c r="J56" s="108" t="n"/>
     </row>
     <row r="57" ht="18" customHeight="1" thickBot="1"/>
     <row r="58" ht="18" customHeight="1">
-      <c r="B58" s="38" t="inlineStr">
+      <c r="B58" s="28" t="inlineStr">
         <is>
           <t>INFORMAÇÕES PREENCHIDAS PELA COMERCIAL OSWALDO CRUZ</t>
         </is>
       </c>
-      <c r="C58" s="93" t="n"/>
-      <c r="D58" s="93" t="n"/>
-      <c r="E58" s="93" t="n"/>
-      <c r="F58" s="93" t="n"/>
-      <c r="G58" s="93" t="n"/>
-      <c r="H58" s="93" t="n"/>
-      <c r="I58" s="93" t="n"/>
-      <c r="J58" s="94" t="n"/>
+      <c r="C58" s="94" t="n"/>
+      <c r="D58" s="94" t="n"/>
+      <c r="E58" s="94" t="n"/>
+      <c r="F58" s="94" t="n"/>
+      <c r="G58" s="94" t="n"/>
+      <c r="H58" s="94" t="n"/>
+      <c r="I58" s="94" t="n"/>
+      <c r="J58" s="95" t="n"/>
     </row>
     <row r="59" ht="18" customHeight="1">
       <c r="B59" s="5" t="inlineStr">
@@ -3593,14 +3741,14 @@
           <t>COMPRADOR:</t>
         </is>
       </c>
-      <c r="C59" s="34" t="n"/>
-      <c r="D59" s="99" t="n"/>
-      <c r="E59" s="99" t="n"/>
-      <c r="F59" s="99" t="n"/>
-      <c r="G59" s="99" t="n"/>
-      <c r="H59" s="99" t="n"/>
-      <c r="I59" s="99" t="n"/>
-      <c r="J59" s="101" t="n"/>
+      <c r="C59" s="45" t="n"/>
+      <c r="D59" s="100" t="n"/>
+      <c r="E59" s="100" t="n"/>
+      <c r="F59" s="100" t="n"/>
+      <c r="G59" s="100" t="n"/>
+      <c r="H59" s="100" t="n"/>
+      <c r="I59" s="100" t="n"/>
+      <c r="J59" s="102" t="n"/>
     </row>
     <row r="60" ht="18" customFormat="1" customHeight="1" s="9">
       <c r="B60" s="3" t="inlineStr">
@@ -3608,25 +3756,25 @@
           <t>MAPA:</t>
         </is>
       </c>
-      <c r="C60" s="41" t="inlineStr">
+      <c r="C60" s="84" t="inlineStr">
         <is>
           <t>A GRANDE (  )</t>
         </is>
       </c>
-      <c r="D60" s="115" t="n"/>
-      <c r="E60" s="41" t="inlineStr">
+      <c r="D60" s="116" t="n"/>
+      <c r="E60" s="84" t="inlineStr">
         <is>
           <t>A PEQUENO (  )</t>
         </is>
       </c>
-      <c r="F60" s="115" t="n"/>
-      <c r="G60" s="41" t="inlineStr">
+      <c r="F60" s="116" t="n"/>
+      <c r="G60" s="84" t="inlineStr">
         <is>
           <t>C GRANDE (  )</t>
         </is>
       </c>
-      <c r="H60" s="115" t="n"/>
-      <c r="I60" s="41" t="inlineStr">
+      <c r="H60" s="116" t="n"/>
+      <c r="I60" s="84" t="inlineStr">
         <is>
           <t>C PEQUENO (  )</t>
         </is>
@@ -3721,30 +3869,30 @@
           <t>FORMA DE ABASTECIMENTO:</t>
         </is>
       </c>
-      <c r="C63" s="30" t="inlineStr">
+      <c r="C63" s="88" t="inlineStr">
         <is>
           <t>CENTRAL - CENTRAL (  )</t>
         </is>
       </c>
-      <c r="D63" s="115" t="n"/>
-      <c r="E63" s="30" t="inlineStr">
+      <c r="D63" s="116" t="n"/>
+      <c r="E63" s="88" t="inlineStr">
         <is>
           <t>CENTRAL - LOJA (  )</t>
         </is>
       </c>
-      <c r="F63" s="115" t="n"/>
-      <c r="G63" s="30" t="inlineStr">
+      <c r="F63" s="116" t="n"/>
+      <c r="G63" s="88" t="inlineStr">
         <is>
           <t>LOJA - LOJA (  )</t>
         </is>
       </c>
-      <c r="H63" s="115" t="n"/>
-      <c r="I63" s="30" t="inlineStr">
+      <c r="H63" s="116" t="n"/>
+      <c r="I63" s="88" t="inlineStr">
         <is>
           <t>CROSSDOCKING (  )</t>
         </is>
       </c>
-      <c r="J63" s="115" t="n"/>
+      <c r="J63" s="116" t="n"/>
     </row>
     <row r="64" ht="18" customHeight="1">
       <c r="B64" s="3" t="inlineStr">
@@ -3752,14 +3900,14 @@
           <t>JÁ EXISTE FAMÍLIA CADASTRADA?</t>
         </is>
       </c>
-      <c r="C64" s="32" t="n"/>
-      <c r="D64" s="99" t="n"/>
-      <c r="E64" s="99" t="n"/>
-      <c r="F64" s="99" t="n"/>
-      <c r="G64" s="99" t="n"/>
-      <c r="H64" s="99" t="n"/>
-      <c r="I64" s="99" t="n"/>
-      <c r="J64" s="101" t="n"/>
+      <c r="C64" s="53" t="n"/>
+      <c r="D64" s="100" t="n"/>
+      <c r="E64" s="100" t="n"/>
+      <c r="F64" s="100" t="n"/>
+      <c r="G64" s="100" t="n"/>
+      <c r="H64" s="100" t="n"/>
+      <c r="I64" s="100" t="n"/>
+      <c r="J64" s="102" t="n"/>
     </row>
     <row r="65" ht="18" customHeight="1">
       <c r="B65" s="5" t="inlineStr">
@@ -3767,14 +3915,14 @@
           <t>INFORME O CÓDIGO DA FAMÍLIA:</t>
         </is>
       </c>
-      <c r="C65" s="34" t="n"/>
-      <c r="D65" s="99" t="n"/>
-      <c r="E65" s="99" t="n"/>
-      <c r="F65" s="99" t="n"/>
-      <c r="G65" s="99" t="n"/>
-      <c r="H65" s="99" t="n"/>
-      <c r="I65" s="99" t="n"/>
-      <c r="J65" s="101" t="n"/>
+      <c r="C65" s="45" t="n"/>
+      <c r="D65" s="100" t="n"/>
+      <c r="E65" s="100" t="n"/>
+      <c r="F65" s="100" t="n"/>
+      <c r="G65" s="100" t="n"/>
+      <c r="H65" s="100" t="n"/>
+      <c r="I65" s="100" t="n"/>
+      <c r="J65" s="102" t="n"/>
     </row>
     <row r="66" ht="18" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="inlineStr">
@@ -3782,14 +3930,14 @@
           <t>SEGMENTAÇÃO:</t>
         </is>
       </c>
-      <c r="C66" s="25" t="n"/>
-      <c r="D66" s="106" t="n"/>
-      <c r="E66" s="106" t="n"/>
-      <c r="F66" s="106" t="n"/>
-      <c r="G66" s="106" t="n"/>
-      <c r="H66" s="106" t="n"/>
-      <c r="I66" s="106" t="n"/>
-      <c r="J66" s="107" t="n"/>
+      <c r="C66" s="62" t="n"/>
+      <c r="D66" s="107" t="n"/>
+      <c r="E66" s="107" t="n"/>
+      <c r="F66" s="107" t="n"/>
+      <c r="G66" s="107" t="n"/>
+      <c r="H66" s="107" t="n"/>
+      <c r="I66" s="107" t="n"/>
+      <c r="J66" s="108" t="n"/>
     </row>
     <row r="67" ht="18" customHeight="1" thickBot="1">
       <c r="B67" s="9" t="n"/>
@@ -3800,19 +3948,19 @@
       <c r="I67" s="10" t="n"/>
     </row>
     <row r="68" ht="18" customHeight="1" thickBot="1">
-      <c r="B68" s="116" t="inlineStr">
+      <c r="B68" s="117" t="inlineStr">
         <is>
           <t>ATENÇÃO: TODO PRODUTO NOVO PRECISA DE UMA DIVISÃO INICIAL FEITA PELO COMPRADOR</t>
         </is>
       </c>
-      <c r="C68" s="117" t="n"/>
-      <c r="D68" s="117" t="n"/>
-      <c r="E68" s="117" t="n"/>
-      <c r="F68" s="117" t="n"/>
-      <c r="G68" s="117" t="n"/>
-      <c r="H68" s="117" t="n"/>
-      <c r="I68" s="117" t="n"/>
-      <c r="J68" s="118" t="n"/>
+      <c r="C68" s="118" t="n"/>
+      <c r="D68" s="118" t="n"/>
+      <c r="E68" s="118" t="n"/>
+      <c r="F68" s="118" t="n"/>
+      <c r="G68" s="118" t="n"/>
+      <c r="H68" s="118" t="n"/>
+      <c r="I68" s="118" t="n"/>
+      <c r="J68" s="119" t="n"/>
     </row>
     <row r="69" ht="18" customHeight="1"/>
     <row r="70" ht="18" customHeight="1"/>
@@ -3841,96 +3989,96 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="B1:J1"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="F9:J9"/>
     <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B35:J36"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="C27:J27"/>
     <mergeCell ref="B4:J4"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C53:J53"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I39:J39"/>
     <mergeCell ref="F13:J13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="B35:J36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C65:J65"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -3946,63 +4094,63 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="1.5703125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="33.28515625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="15.7109375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="14.7109375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="23.7109375" customWidth="1" style="1" min="5" max="5"/>
-    <col width="14.7109375" customWidth="1" style="1" min="6" max="9"/>
-    <col width="11.5703125" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9.140625" customWidth="1" style="1" min="11" max="16384"/>
+    <col width="1.5546875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="33.33203125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="15.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="14.6640625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="23.6640625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="14.6640625" customWidth="1" style="1" min="6" max="9"/>
+    <col width="11.5546875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.109375" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B1" s="90" t="inlineStr">
+      <c r="B1" s="91" t="inlineStr">
         <is>
           <t>CADASTRO SUPERMERCADOS JOANIN LTDA</t>
         </is>
       </c>
-      <c r="C1" s="91" t="n"/>
-      <c r="D1" s="91" t="n"/>
-      <c r="E1" s="91" t="n"/>
-      <c r="F1" s="91" t="n"/>
-      <c r="G1" s="91" t="n"/>
-      <c r="H1" s="91" t="n"/>
-      <c r="I1" s="91" t="n"/>
-      <c r="J1" s="92" t="n"/>
+      <c r="C1" s="92" t="n"/>
+      <c r="D1" s="92" t="n"/>
+      <c r="E1" s="92" t="n"/>
+      <c r="F1" s="92" t="n"/>
+      <c r="G1" s="92" t="n"/>
+      <c r="H1" s="92" t="n"/>
+      <c r="I1" s="92" t="n"/>
+      <c r="J1" s="93" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1" thickBot="1"/>
     <row r="3" ht="18" customHeight="1">
-      <c r="B3" s="38" t="inlineStr">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>INFORMAÇÕES FORNECEDOR</t>
         </is>
       </c>
-      <c r="C3" s="93" t="n"/>
-      <c r="D3" s="93" t="n"/>
-      <c r="E3" s="93" t="n"/>
-      <c r="F3" s="93" t="n"/>
-      <c r="G3" s="93" t="n"/>
-      <c r="H3" s="93" t="n"/>
-      <c r="I3" s="93" t="n"/>
-      <c r="J3" s="94" t="n"/>
+      <c r="C3" s="94" t="n"/>
+      <c r="D3" s="94" t="n"/>
+      <c r="E3" s="94" t="n"/>
+      <c r="F3" s="94" t="n"/>
+      <c r="G3" s="94" t="n"/>
+      <c r="H3" s="94" t="n"/>
+      <c r="I3" s="94" t="n"/>
+      <c r="J3" s="95" t="n"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="B4" s="95" t="inlineStr">
+      <c r="B4" s="96" t="inlineStr">
         <is>
           <t>É FORNECEDOR NOVO (    ) SIM     (   ) NÃO                           -                            FOI FEITO CONTRATO (   ) SIM      (    ) NÃO</t>
         </is>
       </c>
-      <c r="C4" s="96" t="n"/>
-      <c r="D4" s="96" t="n"/>
-      <c r="E4" s="96" t="n"/>
-      <c r="F4" s="96" t="n"/>
-      <c r="G4" s="96" t="n"/>
-      <c r="H4" s="96" t="n"/>
-      <c r="I4" s="96" t="n"/>
-      <c r="J4" s="97" t="n"/>
+      <c r="C4" s="97" t="n"/>
+      <c r="D4" s="97" t="n"/>
+      <c r="E4" s="97" t="n"/>
+      <c r="F4" s="97" t="n"/>
+      <c r="G4" s="97" t="n"/>
+      <c r="H4" s="97" t="n"/>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="98" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="B5" s="2" t="inlineStr">
@@ -4010,18 +4158,18 @@
           <t>RAZÃO SOCIAL:</t>
         </is>
       </c>
-      <c r="C5" s="98" t="inlineStr">
+      <c r="C5" s="99" t="inlineStr">
         <is>
           <t>NETFEIRA PONTOCOM LTDA</t>
         </is>
       </c>
-      <c r="D5" s="99" t="n"/>
-      <c r="E5" s="99" t="n"/>
-      <c r="F5" s="99" t="n"/>
-      <c r="G5" s="99" t="n"/>
-      <c r="H5" s="99" t="n"/>
-      <c r="I5" s="99" t="n"/>
-      <c r="J5" s="100" t="n"/>
+      <c r="D5" s="100" t="n"/>
+      <c r="E5" s="100" t="n"/>
+      <c r="F5" s="100" t="n"/>
+      <c r="G5" s="100" t="n"/>
+      <c r="H5" s="100" t="n"/>
+      <c r="I5" s="100" t="n"/>
+      <c r="J5" s="101" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="B6" s="3" t="inlineStr">
@@ -4029,26 +4177,26 @@
           <t>CNPJ:</t>
         </is>
       </c>
-      <c r="C6" s="51" t="inlineStr">
+      <c r="C6" s="37" t="inlineStr">
         <is>
           <t>03.974.724/0001-24</t>
         </is>
       </c>
-      <c r="D6" s="101" t="n"/>
+      <c r="D6" s="102" t="n"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t>INSC. ESTADUAL:</t>
         </is>
       </c>
-      <c r="F6" s="72" t="inlineStr">
+      <c r="F6" s="38" t="inlineStr">
         <is>
           <t>115.951.284-113</t>
         </is>
       </c>
-      <c r="G6" s="99" t="n"/>
-      <c r="H6" s="99" t="n"/>
-      <c r="I6" s="99" t="n"/>
-      <c r="J6" s="101" t="n"/>
+      <c r="G6" s="100" t="n"/>
+      <c r="H6" s="100" t="n"/>
+      <c r="I6" s="100" t="n"/>
+      <c r="J6" s="102" t="n"/>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="B7" s="5" t="inlineStr">
@@ -4056,26 +4204,26 @@
           <t>ENDEREÇO:</t>
         </is>
       </c>
-      <c r="C7" s="71" t="inlineStr">
+      <c r="C7" s="44" t="inlineStr">
         <is>
           <t>AVENIDA DOUTOR GASTÃO VIDIGAL</t>
         </is>
       </c>
-      <c r="D7" s="101" t="n"/>
+      <c r="D7" s="102" t="n"/>
       <c r="E7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Nº </t>
         </is>
       </c>
-      <c r="F7" s="72" t="inlineStr">
+      <c r="F7" s="38" t="inlineStr">
         <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="G7" s="99" t="n"/>
-      <c r="H7" s="99" t="n"/>
-      <c r="I7" s="99" t="n"/>
-      <c r="J7" s="101" t="n"/>
+      <c r="G7" s="100" t="n"/>
+      <c r="H7" s="100" t="n"/>
+      <c r="I7" s="100" t="n"/>
+      <c r="J7" s="102" t="n"/>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="B8" s="3" t="inlineStr">
@@ -4083,26 +4231,26 @@
           <t xml:space="preserve">BAIRRO: </t>
         </is>
       </c>
-      <c r="C8" s="51" t="inlineStr">
+      <c r="C8" s="37" t="inlineStr">
         <is>
           <t>VILA LEOPOLDINA</t>
         </is>
       </c>
-      <c r="D8" s="101" t="n"/>
+      <c r="D8" s="102" t="n"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t>CEP:</t>
         </is>
       </c>
-      <c r="F8" s="72" t="inlineStr">
+      <c r="F8" s="38" t="inlineStr">
         <is>
           <t>5316900</t>
         </is>
       </c>
-      <c r="G8" s="99" t="n"/>
-      <c r="H8" s="99" t="n"/>
-      <c r="I8" s="99" t="n"/>
-      <c r="J8" s="101" t="n"/>
+      <c r="G8" s="100" t="n"/>
+      <c r="H8" s="100" t="n"/>
+      <c r="I8" s="100" t="n"/>
+      <c r="J8" s="102" t="n"/>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="B9" s="5" t="inlineStr">
@@ -4110,26 +4258,26 @@
           <t>CIDADE:</t>
         </is>
       </c>
-      <c r="C9" s="34" t="inlineStr">
+      <c r="C9" s="45" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="D9" s="101" t="n"/>
+      <c r="D9" s="102" t="n"/>
       <c r="E9" s="6" t="inlineStr">
         <is>
           <t>ESTADO:</t>
         </is>
       </c>
-      <c r="F9" s="71" t="inlineStr">
+      <c r="F9" s="44" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="G9" s="99" t="n"/>
-      <c r="H9" s="99" t="n"/>
-      <c r="I9" s="99" t="n"/>
-      <c r="J9" s="101" t="n"/>
+      <c r="G9" s="100" t="n"/>
+      <c r="H9" s="100" t="n"/>
+      <c r="I9" s="100" t="n"/>
+      <c r="J9" s="102" t="n"/>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="B10" s="3" t="inlineStr">
@@ -4137,22 +4285,22 @@
           <t>COMPLEMENTO:</t>
         </is>
       </c>
-      <c r="C10" s="51" t="inlineStr">
+      <c r="C10" s="37" t="inlineStr">
         <is>
           <t>P.AMA BOX 61/62,AMB BOX 3,4</t>
         </is>
       </c>
-      <c r="D10" s="101" t="n"/>
+      <c r="D10" s="102" t="n"/>
       <c r="E10" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">PRAZO DE PGTO </t>
         </is>
       </c>
-      <c r="F10" s="102" t="n"/>
-      <c r="G10" s="99" t="n"/>
-      <c r="H10" s="99" t="n"/>
-      <c r="I10" s="99" t="n"/>
-      <c r="J10" s="100" t="n"/>
+      <c r="F10" s="103" t="n"/>
+      <c r="G10" s="100" t="n"/>
+      <c r="H10" s="100" t="n"/>
+      <c r="I10" s="100" t="n"/>
+      <c r="J10" s="101" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="B11" s="3" t="inlineStr">
@@ -4160,18 +4308,18 @@
           <t>CONTATO :</t>
         </is>
       </c>
-      <c r="C11" s="51" t="n"/>
-      <c r="D11" s="101" t="n"/>
+      <c r="C11" s="37" t="n"/>
+      <c r="D11" s="102" t="n"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t>TELEFONE :</t>
         </is>
       </c>
-      <c r="F11" s="75" t="n"/>
-      <c r="G11" s="76" t="n"/>
-      <c r="H11" s="76" t="n"/>
-      <c r="I11" s="76" t="n"/>
-      <c r="J11" s="77" t="n"/>
+      <c r="F11" s="47" t="n"/>
+      <c r="G11" s="48" t="n"/>
+      <c r="H11" s="48" t="n"/>
+      <c r="I11" s="48" t="n"/>
+      <c r="J11" s="49" t="n"/>
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="B12" s="23" t="inlineStr">
@@ -4179,37 +4327,37 @@
           <t>E-MAIL PARA ENVIO XML</t>
         </is>
       </c>
-      <c r="C12" s="78" t="n"/>
-      <c r="D12" s="101" t="n"/>
+      <c r="C12" s="50" t="n"/>
+      <c r="D12" s="102" t="n"/>
       <c r="E12" s="24" t="inlineStr">
         <is>
           <t>E-MAIL PARA FINANCEIRO</t>
         </is>
       </c>
-      <c r="F12" s="80" t="n"/>
-      <c r="G12" s="99" t="n"/>
-      <c r="H12" s="99" t="n"/>
-      <c r="I12" s="99" t="n"/>
-      <c r="J12" s="101" t="n"/>
+      <c r="F12" s="52" t="n"/>
+      <c r="G12" s="100" t="n"/>
+      <c r="H12" s="100" t="n"/>
+      <c r="I12" s="100" t="n"/>
+      <c r="J12" s="102" t="n"/>
     </row>
     <row r="13" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="67" t="inlineStr">
+      <c r="B13" s="40" t="inlineStr">
         <is>
           <t>(    )COM INDENIZAÇÃO - FORNECEDOR ACEITA NOTA FISCAL DE DEVOLUÇÃO</t>
         </is>
       </c>
-      <c r="C13" s="103" t="n"/>
-      <c r="D13" s="103" t="n"/>
-      <c r="E13" s="103" t="n"/>
-      <c r="F13" s="70" t="inlineStr">
+      <c r="C13" s="104" t="n"/>
+      <c r="D13" s="104" t="n"/>
+      <c r="E13" s="104" t="n"/>
+      <c r="F13" s="43" t="inlineStr">
         <is>
           <t>(    ) SEM INDENIZAÇÃO  -  FORNECEDOR NÃO ACEITA NOTA FISCAL DEVOLUÇÃO</t>
         </is>
       </c>
-      <c r="G13" s="104" t="n"/>
-      <c r="H13" s="104" t="n"/>
-      <c r="I13" s="104" t="n"/>
-      <c r="J13" s="105" t="n"/>
+      <c r="G13" s="105" t="n"/>
+      <c r="H13" s="105" t="n"/>
+      <c r="I13" s="105" t="n"/>
+      <c r="J13" s="106" t="n"/>
     </row>
     <row r="14" ht="18" customHeight="1" thickBot="1">
       <c r="B14" s="9" t="n"/>
@@ -4220,19 +4368,19 @@
       <c r="I14" s="10" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="B15" s="38" t="inlineStr">
+      <c r="B15" s="28" t="inlineStr">
         <is>
           <t>DADOS DO PRODUTO - UNIDADE</t>
         </is>
       </c>
-      <c r="C15" s="93" t="n"/>
-      <c r="D15" s="93" t="n"/>
-      <c r="E15" s="93" t="n"/>
-      <c r="F15" s="93" t="n"/>
-      <c r="G15" s="93" t="n"/>
-      <c r="H15" s="93" t="n"/>
-      <c r="I15" s="93" t="n"/>
-      <c r="J15" s="94" t="n"/>
+      <c r="C15" s="94" t="n"/>
+      <c r="D15" s="94" t="n"/>
+      <c r="E15" s="94" t="n"/>
+      <c r="F15" s="94" t="n"/>
+      <c r="G15" s="94" t="n"/>
+      <c r="H15" s="94" t="n"/>
+      <c r="I15" s="94" t="n"/>
+      <c r="J15" s="95" t="n"/>
     </row>
     <row r="16" ht="18" customHeight="1">
       <c r="B16" s="3" t="inlineStr">
@@ -4240,14 +4388,18 @@
           <t>DESCRIÇÃO:</t>
         </is>
       </c>
-      <c r="C16" s="32" t="n"/>
-      <c r="D16" s="99" t="n"/>
-      <c r="E16" s="99" t="n"/>
-      <c r="F16" s="99" t="n"/>
-      <c r="G16" s="99" t="n"/>
-      <c r="H16" s="99" t="n"/>
-      <c r="I16" s="99" t="n"/>
-      <c r="J16" s="101" t="n"/>
+      <c r="C16" s="53" t="inlineStr">
+        <is>
+          <t>POLPINHA DE ACEROLA (100G)</t>
+        </is>
+      </c>
+      <c r="D16" s="100" t="n"/>
+      <c r="E16" s="100" t="n"/>
+      <c r="F16" s="100" t="n"/>
+      <c r="G16" s="100" t="n"/>
+      <c r="H16" s="100" t="n"/>
+      <c r="I16" s="100" t="n"/>
+      <c r="J16" s="102" t="n"/>
       <c r="N16" s="11" t="n"/>
     </row>
     <row r="17" ht="18" customHeight="1">
@@ -4256,22 +4408,26 @@
           <t>CÓD DE BARRAS:</t>
         </is>
       </c>
-      <c r="C17" s="65" t="n"/>
-      <c r="D17" s="101" t="n"/>
+      <c r="C17" s="55" t="inlineStr">
+        <is>
+          <t>7896519210206</t>
+        </is>
+      </c>
+      <c r="D17" s="102" t="n"/>
       <c r="E17" s="12" t="inlineStr">
         <is>
           <t>MARCA:</t>
         </is>
       </c>
-      <c r="F17" s="65" t="inlineStr">
+      <c r="F17" s="55" t="inlineStr">
         <is>
           <t>DE MARCHI</t>
         </is>
       </c>
-      <c r="G17" s="99" t="n"/>
-      <c r="H17" s="99" t="n"/>
-      <c r="I17" s="99" t="n"/>
-      <c r="J17" s="101" t="n"/>
+      <c r="G17" s="100" t="n"/>
+      <c r="H17" s="100" t="n"/>
+      <c r="I17" s="100" t="n"/>
+      <c r="J17" s="102" t="n"/>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="B18" s="3" t="inlineStr">
@@ -4279,18 +4435,26 @@
           <t>PESO LIQUIDO KG:</t>
         </is>
       </c>
-      <c r="C18" s="51" t="n"/>
-      <c r="D18" s="101" t="n"/>
+      <c r="C18" s="37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D18" s="102" t="n"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
           <t>PESO BRUTO KG:</t>
         </is>
       </c>
-      <c r="F18" s="32" t="n"/>
-      <c r="G18" s="99" t="n"/>
-      <c r="H18" s="99" t="n"/>
-      <c r="I18" s="99" t="n"/>
-      <c r="J18" s="101" t="n"/>
+      <c r="F18" s="53" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G18" s="100" t="n"/>
+      <c r="H18" s="100" t="n"/>
+      <c r="I18" s="100" t="n"/>
+      <c r="J18" s="102" t="n"/>
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="B19" s="5" t="inlineStr">
@@ -4298,14 +4462,18 @@
           <t>COMPRIMENTO EM CM:</t>
         </is>
       </c>
-      <c r="C19" s="34" t="n"/>
-      <c r="D19" s="99" t="n"/>
-      <c r="E19" s="99" t="n"/>
-      <c r="F19" s="99" t="n"/>
-      <c r="G19" s="99" t="n"/>
-      <c r="H19" s="99" t="n"/>
-      <c r="I19" s="99" t="n"/>
-      <c r="J19" s="101" t="n"/>
+      <c r="C19" s="45" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D19" s="100" t="n"/>
+      <c r="E19" s="100" t="n"/>
+      <c r="F19" s="100" t="n"/>
+      <c r="G19" s="100" t="n"/>
+      <c r="H19" s="100" t="n"/>
+      <c r="I19" s="100" t="n"/>
+      <c r="J19" s="102" t="n"/>
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="B20" s="3" t="inlineStr">
@@ -4313,14 +4481,18 @@
           <t>LARGURA EM CM:</t>
         </is>
       </c>
-      <c r="C20" s="57" t="n"/>
-      <c r="D20" s="99" t="n"/>
-      <c r="E20" s="99" t="n"/>
-      <c r="F20" s="99" t="n"/>
-      <c r="G20" s="99" t="n"/>
-      <c r="H20" s="99" t="n"/>
-      <c r="I20" s="99" t="n"/>
-      <c r="J20" s="101" t="n"/>
+      <c r="C20" s="58" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="D20" s="100" t="n"/>
+      <c r="E20" s="100" t="n"/>
+      <c r="F20" s="100" t="n"/>
+      <c r="G20" s="100" t="n"/>
+      <c r="H20" s="100" t="n"/>
+      <c r="I20" s="100" t="n"/>
+      <c r="J20" s="102" t="n"/>
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="B21" s="5" t="inlineStr">
@@ -4328,14 +4500,18 @@
           <t>ALTURA EM CM:</t>
         </is>
       </c>
-      <c r="C21" s="59" t="n"/>
-      <c r="D21" s="99" t="n"/>
-      <c r="E21" s="99" t="n"/>
-      <c r="F21" s="99" t="n"/>
-      <c r="G21" s="99" t="n"/>
-      <c r="H21" s="99" t="n"/>
-      <c r="I21" s="99" t="n"/>
-      <c r="J21" s="101" t="n"/>
+      <c r="C21" s="60" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="D21" s="100" t="n"/>
+      <c r="E21" s="100" t="n"/>
+      <c r="F21" s="100" t="n"/>
+      <c r="G21" s="100" t="n"/>
+      <c r="H21" s="100" t="n"/>
+      <c r="I21" s="100" t="n"/>
+      <c r="J21" s="102" t="n"/>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="B22" s="3" t="inlineStr">
@@ -4343,14 +4519,14 @@
           <t>VALIDADE EM DIAS:</t>
         </is>
       </c>
-      <c r="C22" s="32" t="n"/>
-      <c r="D22" s="99" t="n"/>
-      <c r="E22" s="99" t="n"/>
-      <c r="F22" s="99" t="n"/>
-      <c r="G22" s="99" t="n"/>
-      <c r="H22" s="99" t="n"/>
-      <c r="I22" s="99" t="n"/>
-      <c r="J22" s="101" t="n"/>
+      <c r="C22" s="53" t="n"/>
+      <c r="D22" s="100" t="n"/>
+      <c r="E22" s="100" t="n"/>
+      <c r="F22" s="100" t="n"/>
+      <c r="G22" s="100" t="n"/>
+      <c r="H22" s="100" t="n"/>
+      <c r="I22" s="100" t="n"/>
+      <c r="J22" s="102" t="n"/>
     </row>
     <row r="23" ht="18" customHeight="1" thickBot="1">
       <c r="B23" s="7" t="inlineStr">
@@ -4358,34 +4534,38 @@
           <t>COD PRODUTO FORNECEDOR:</t>
         </is>
       </c>
-      <c r="C23" s="25" t="n"/>
-      <c r="D23" s="106" t="n"/>
-      <c r="E23" s="107" t="n"/>
-      <c r="F23" s="61" t="inlineStr">
+      <c r="C23" s="90" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D23" s="107" t="n"/>
+      <c r="E23" s="108" t="n"/>
+      <c r="F23" s="63" t="inlineStr">
         <is>
           <t>(É OBRIGADOTÓRIO QUE O CÓDIGO DO FORNECEDOR SEJA O MESMO DO XML)</t>
         </is>
       </c>
-      <c r="G23" s="106" t="n"/>
-      <c r="H23" s="106" t="n"/>
-      <c r="I23" s="106" t="n"/>
-      <c r="J23" s="107" t="n"/>
+      <c r="G23" s="107" t="n"/>
+      <c r="H23" s="107" t="n"/>
+      <c r="I23" s="107" t="n"/>
+      <c r="J23" s="108" t="n"/>
     </row>
     <row r="24" ht="18" customHeight="1" thickBot="1"/>
     <row r="25" ht="18" customHeight="1">
-      <c r="B25" s="38" t="inlineStr">
+      <c r="B25" s="28" t="inlineStr">
         <is>
           <t>DADOS DO PRODUTO - CAIXA</t>
         </is>
       </c>
-      <c r="C25" s="93" t="n"/>
-      <c r="D25" s="93" t="n"/>
-      <c r="E25" s="93" t="n"/>
-      <c r="F25" s="93" t="n"/>
-      <c r="G25" s="93" t="n"/>
-      <c r="H25" s="93" t="n"/>
-      <c r="I25" s="93" t="n"/>
-      <c r="J25" s="94" t="n"/>
+      <c r="C25" s="94" t="n"/>
+      <c r="D25" s="94" t="n"/>
+      <c r="E25" s="94" t="n"/>
+      <c r="F25" s="94" t="n"/>
+      <c r="G25" s="94" t="n"/>
+      <c r="H25" s="94" t="n"/>
+      <c r="I25" s="94" t="n"/>
+      <c r="J25" s="95" t="n"/>
     </row>
     <row r="26" ht="18" customHeight="1">
       <c r="B26" s="3" t="inlineStr">
@@ -4393,14 +4573,18 @@
           <t>TIPO DE EMBALAGEM:</t>
         </is>
       </c>
-      <c r="C26" s="32" t="n"/>
-      <c r="D26" s="99" t="n"/>
-      <c r="E26" s="99" t="n"/>
-      <c r="F26" s="99" t="n"/>
-      <c r="G26" s="99" t="n"/>
-      <c r="H26" s="99" t="n"/>
-      <c r="I26" s="99" t="n"/>
-      <c r="J26" s="101" t="n"/>
+      <c r="C26" s="53" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D26" s="100" t="n"/>
+      <c r="E26" s="100" t="n"/>
+      <c r="F26" s="100" t="n"/>
+      <c r="G26" s="100" t="n"/>
+      <c r="H26" s="100" t="n"/>
+      <c r="I26" s="100" t="n"/>
+      <c r="J26" s="102" t="n"/>
     </row>
     <row r="27" ht="18" customHeight="1">
       <c r="B27" s="5" t="inlineStr">
@@ -4408,14 +4592,18 @@
           <t>QUANTIDADE NA CAIXA:</t>
         </is>
       </c>
-      <c r="C27" s="34" t="n"/>
-      <c r="D27" s="99" t="n"/>
-      <c r="E27" s="99" t="n"/>
-      <c r="F27" s="99" t="n"/>
-      <c r="G27" s="99" t="n"/>
-      <c r="H27" s="99" t="n"/>
-      <c r="I27" s="99" t="n"/>
-      <c r="J27" s="101" t="n"/>
+      <c r="C27" s="45" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D27" s="100" t="n"/>
+      <c r="E27" s="100" t="n"/>
+      <c r="F27" s="100" t="n"/>
+      <c r="G27" s="100" t="n"/>
+      <c r="H27" s="100" t="n"/>
+      <c r="I27" s="100" t="n"/>
+      <c r="J27" s="102" t="n"/>
     </row>
     <row r="28" ht="18" customHeight="1">
       <c r="B28" s="3" t="inlineStr">
@@ -4423,14 +4611,18 @@
           <t>CÓD DUN:</t>
         </is>
       </c>
-      <c r="C28" s="63" t="n"/>
-      <c r="D28" s="99" t="n"/>
-      <c r="E28" s="99" t="n"/>
-      <c r="F28" s="99" t="n"/>
-      <c r="G28" s="99" t="n"/>
-      <c r="H28" s="99" t="n"/>
-      <c r="I28" s="99" t="n"/>
-      <c r="J28" s="101" t="n"/>
+      <c r="C28" s="65" t="inlineStr">
+        <is>
+          <t>67896519210208</t>
+        </is>
+      </c>
+      <c r="D28" s="100" t="n"/>
+      <c r="E28" s="100" t="n"/>
+      <c r="F28" s="100" t="n"/>
+      <c r="G28" s="100" t="n"/>
+      <c r="H28" s="100" t="n"/>
+      <c r="I28" s="100" t="n"/>
+      <c r="J28" s="102" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1">
       <c r="B29" s="5" t="inlineStr">
@@ -4438,14 +4630,18 @@
           <t>PESO BRUTO KG:</t>
         </is>
       </c>
-      <c r="C29" s="34" t="n"/>
-      <c r="D29" s="99" t="n"/>
-      <c r="E29" s="99" t="n"/>
-      <c r="F29" s="99" t="n"/>
-      <c r="G29" s="99" t="n"/>
-      <c r="H29" s="99" t="n"/>
-      <c r="I29" s="99" t="n"/>
-      <c r="J29" s="101" t="n"/>
+      <c r="C29" s="45" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="D29" s="100" t="n"/>
+      <c r="E29" s="100" t="n"/>
+      <c r="F29" s="100" t="n"/>
+      <c r="G29" s="100" t="n"/>
+      <c r="H29" s="100" t="n"/>
+      <c r="I29" s="100" t="n"/>
+      <c r="J29" s="102" t="n"/>
     </row>
     <row r="30" ht="18" customHeight="1">
       <c r="B30" s="3" t="inlineStr">
@@ -4453,14 +4649,18 @@
           <t>PESO LIQUIDO KG:</t>
         </is>
       </c>
-      <c r="C30" s="32" t="n"/>
-      <c r="D30" s="99" t="n"/>
-      <c r="E30" s="99" t="n"/>
-      <c r="F30" s="99" t="n"/>
-      <c r="G30" s="99" t="n"/>
-      <c r="H30" s="99" t="n"/>
-      <c r="I30" s="99" t="n"/>
-      <c r="J30" s="101" t="n"/>
+      <c r="C30" s="53" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D30" s="100" t="n"/>
+      <c r="E30" s="100" t="n"/>
+      <c r="F30" s="100" t="n"/>
+      <c r="G30" s="100" t="n"/>
+      <c r="H30" s="100" t="n"/>
+      <c r="I30" s="100" t="n"/>
+      <c r="J30" s="102" t="n"/>
     </row>
     <row r="31" ht="18" customHeight="1">
       <c r="B31" s="5" t="inlineStr">
@@ -4468,14 +4668,18 @@
           <t>COMPRIMENTO EM CM:</t>
         </is>
       </c>
-      <c r="C31" s="34" t="n"/>
-      <c r="D31" s="99" t="n"/>
-      <c r="E31" s="99" t="n"/>
-      <c r="F31" s="99" t="n"/>
-      <c r="G31" s="99" t="n"/>
-      <c r="H31" s="99" t="n"/>
-      <c r="I31" s="99" t="n"/>
-      <c r="J31" s="101" t="n"/>
+      <c r="C31" s="45" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D31" s="100" t="n"/>
+      <c r="E31" s="100" t="n"/>
+      <c r="F31" s="100" t="n"/>
+      <c r="G31" s="100" t="n"/>
+      <c r="H31" s="100" t="n"/>
+      <c r="I31" s="100" t="n"/>
+      <c r="J31" s="102" t="n"/>
     </row>
     <row r="32" ht="18" customHeight="1">
       <c r="B32" s="3" t="inlineStr">
@@ -4483,14 +4687,18 @@
           <t>LARGURA EM CM:</t>
         </is>
       </c>
-      <c r="C32" s="32" t="n"/>
-      <c r="D32" s="99" t="n"/>
-      <c r="E32" s="99" t="n"/>
-      <c r="F32" s="99" t="n"/>
-      <c r="G32" s="99" t="n"/>
-      <c r="H32" s="99" t="n"/>
-      <c r="I32" s="99" t="n"/>
-      <c r="J32" s="101" t="n"/>
+      <c r="C32" s="53" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="D32" s="100" t="n"/>
+      <c r="E32" s="100" t="n"/>
+      <c r="F32" s="100" t="n"/>
+      <c r="G32" s="100" t="n"/>
+      <c r="H32" s="100" t="n"/>
+      <c r="I32" s="100" t="n"/>
+      <c r="J32" s="102" t="n"/>
     </row>
     <row r="33" ht="18" customHeight="1" thickBot="1">
       <c r="B33" s="7" t="inlineStr">
@@ -4498,41 +4706,45 @@
           <t>ALTURA EM CM:</t>
         </is>
       </c>
-      <c r="C33" s="25" t="n"/>
-      <c r="D33" s="106" t="n"/>
-      <c r="E33" s="106" t="n"/>
-      <c r="F33" s="106" t="n"/>
-      <c r="G33" s="106" t="n"/>
-      <c r="H33" s="106" t="n"/>
-      <c r="I33" s="106" t="n"/>
-      <c r="J33" s="107" t="n"/>
+      <c r="C33" s="62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="D33" s="107" t="n"/>
+      <c r="E33" s="107" t="n"/>
+      <c r="F33" s="107" t="n"/>
+      <c r="G33" s="107" t="n"/>
+      <c r="H33" s="107" t="n"/>
+      <c r="I33" s="107" t="n"/>
+      <c r="J33" s="108" t="n"/>
     </row>
     <row r="34" ht="18" customHeight="1" thickBot="1"/>
     <row r="35" ht="18" customHeight="1">
-      <c r="B35" s="38" t="inlineStr">
+      <c r="B35" s="28" t="inlineStr">
         <is>
           <t>CUSTO DO PRODUTO - UNITÁRIO</t>
         </is>
       </c>
-      <c r="C35" s="108" t="n"/>
-      <c r="D35" s="108" t="n"/>
-      <c r="E35" s="108" t="n"/>
-      <c r="F35" s="108" t="n"/>
-      <c r="G35" s="108" t="n"/>
-      <c r="H35" s="108" t="n"/>
-      <c r="I35" s="108" t="n"/>
-      <c r="J35" s="109" t="n"/>
+      <c r="C35" s="109" t="n"/>
+      <c r="D35" s="109" t="n"/>
+      <c r="E35" s="109" t="n"/>
+      <c r="F35" s="109" t="n"/>
+      <c r="G35" s="109" t="n"/>
+      <c r="H35" s="109" t="n"/>
+      <c r="I35" s="109" t="n"/>
+      <c r="J35" s="110" t="n"/>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="B36" s="110" t="n"/>
-      <c r="C36" s="111" t="n"/>
-      <c r="D36" s="111" t="n"/>
-      <c r="E36" s="111" t="n"/>
-      <c r="F36" s="111" t="n"/>
-      <c r="G36" s="111" t="n"/>
-      <c r="H36" s="111" t="n"/>
-      <c r="I36" s="111" t="n"/>
-      <c r="J36" s="112" t="n"/>
+      <c r="B36" s="111" t="n"/>
+      <c r="C36" s="112" t="n"/>
+      <c r="D36" s="112" t="n"/>
+      <c r="E36" s="112" t="n"/>
+      <c r="F36" s="112" t="n"/>
+      <c r="G36" s="112" t="n"/>
+      <c r="H36" s="112" t="n"/>
+      <c r="I36" s="112" t="n"/>
+      <c r="J36" s="113" t="n"/>
     </row>
     <row r="37" ht="18" customHeight="1">
       <c r="B37" s="17" t="inlineStr">
@@ -4540,18 +4752,18 @@
           <t>CUSTO SEM ST:</t>
         </is>
       </c>
-      <c r="C37" s="51" t="n"/>
-      <c r="D37" s="101" t="n"/>
-      <c r="E37" s="52" t="inlineStr">
+      <c r="C37" s="37" t="n"/>
+      <c r="D37" s="102" t="n"/>
+      <c r="E37" s="70" t="inlineStr">
         <is>
           <t>CUSTO COM ST:</t>
         </is>
       </c>
-      <c r="F37" s="113" t="n"/>
-      <c r="G37" s="51" t="n"/>
-      <c r="H37" s="101" t="n"/>
-      <c r="I37" s="52" t="n"/>
-      <c r="J37" s="113" t="n"/>
+      <c r="F37" s="114" t="n"/>
+      <c r="G37" s="37" t="n"/>
+      <c r="H37" s="102" t="n"/>
+      <c r="I37" s="70" t="n"/>
+      <c r="J37" s="114" t="n"/>
     </row>
     <row r="38" ht="18" customHeight="1">
       <c r="B38" s="17" t="inlineStr">
@@ -4559,18 +4771,18 @@
           <t>VALOR DA ST:</t>
         </is>
       </c>
-      <c r="C38" s="51" t="n"/>
-      <c r="D38" s="101" t="n"/>
-      <c r="E38" s="52" t="inlineStr">
+      <c r="C38" s="37" t="n"/>
+      <c r="D38" s="102" t="n"/>
+      <c r="E38" s="70" t="inlineStr">
         <is>
           <t>CUSTO UNITÁRIO FINAL:</t>
         </is>
       </c>
-      <c r="F38" s="113" t="n"/>
-      <c r="G38" s="51" t="n"/>
-      <c r="H38" s="101" t="n"/>
-      <c r="I38" s="52" t="n"/>
-      <c r="J38" s="113" t="n"/>
+      <c r="F38" s="114" t="n"/>
+      <c r="G38" s="37" t="n"/>
+      <c r="H38" s="102" t="n"/>
+      <c r="I38" s="70" t="n"/>
+      <c r="J38" s="114" t="n"/>
     </row>
     <row r="39" ht="18" customHeight="1">
       <c r="B39" s="17" t="inlineStr">
@@ -4578,49 +4790,49 @@
           <t>VERBA:</t>
         </is>
       </c>
-      <c r="C39" s="51" t="n"/>
-      <c r="D39" s="101" t="n"/>
-      <c r="E39" s="52" t="inlineStr">
+      <c r="C39" s="37" t="n"/>
+      <c r="D39" s="102" t="n"/>
+      <c r="E39" s="70" t="inlineStr">
         <is>
           <t>MARGEM:</t>
         </is>
       </c>
-      <c r="F39" s="113" t="n"/>
-      <c r="G39" s="51" t="n"/>
-      <c r="H39" s="101" t="n"/>
-      <c r="I39" s="52" t="n"/>
-      <c r="J39" s="113" t="n"/>
+      <c r="F39" s="114" t="n"/>
+      <c r="G39" s="37" t="n"/>
+      <c r="H39" s="102" t="n"/>
+      <c r="I39" s="70" t="n"/>
+      <c r="J39" s="114" t="n"/>
     </row>
     <row r="40" ht="18" customHeight="1" thickBot="1">
       <c r="B40" s="18" t="n"/>
-      <c r="C40" s="53" t="n"/>
-      <c r="D40" s="107" t="n"/>
-      <c r="E40" s="54" t="inlineStr">
+      <c r="C40" s="71" t="n"/>
+      <c r="D40" s="108" t="n"/>
+      <c r="E40" s="72" t="inlineStr">
         <is>
           <t>VALOR DE VENDA:</t>
         </is>
       </c>
-      <c r="F40" s="114" t="n"/>
-      <c r="G40" s="53" t="n"/>
-      <c r="H40" s="107" t="n"/>
-      <c r="I40" s="54" t="n"/>
-      <c r="J40" s="114" t="n"/>
+      <c r="F40" s="115" t="n"/>
+      <c r="G40" s="71" t="n"/>
+      <c r="H40" s="108" t="n"/>
+      <c r="I40" s="72" t="n"/>
+      <c r="J40" s="115" t="n"/>
     </row>
     <row r="41" ht="18" customHeight="1" thickBot="1"/>
     <row r="42" ht="18" customHeight="1">
-      <c r="B42" s="38" t="inlineStr">
+      <c r="B42" s="28" t="inlineStr">
         <is>
           <t>DADOS PALLETIZAÇÃO</t>
         </is>
       </c>
-      <c r="C42" s="93" t="n"/>
-      <c r="D42" s="93" t="n"/>
-      <c r="E42" s="93" t="n"/>
-      <c r="F42" s="93" t="n"/>
-      <c r="G42" s="93" t="n"/>
-      <c r="H42" s="93" t="n"/>
-      <c r="I42" s="93" t="n"/>
-      <c r="J42" s="94" t="n"/>
+      <c r="C42" s="94" t="n"/>
+      <c r="D42" s="94" t="n"/>
+      <c r="E42" s="94" t="n"/>
+      <c r="F42" s="94" t="n"/>
+      <c r="G42" s="94" t="n"/>
+      <c r="H42" s="94" t="n"/>
+      <c r="I42" s="94" t="n"/>
+      <c r="J42" s="95" t="n"/>
     </row>
     <row r="43" ht="18" customHeight="1">
       <c r="B43" s="3" t="inlineStr">
@@ -4628,14 +4840,14 @@
           <t>LASTRO/CAMADA:</t>
         </is>
       </c>
-      <c r="C43" s="32" t="n"/>
-      <c r="D43" s="99" t="n"/>
-      <c r="E43" s="99" t="n"/>
-      <c r="F43" s="99" t="n"/>
-      <c r="G43" s="99" t="n"/>
-      <c r="H43" s="99" t="n"/>
-      <c r="I43" s="99" t="n"/>
-      <c r="J43" s="101" t="n"/>
+      <c r="C43" s="53" t="n"/>
+      <c r="D43" s="100" t="n"/>
+      <c r="E43" s="100" t="n"/>
+      <c r="F43" s="100" t="n"/>
+      <c r="G43" s="100" t="n"/>
+      <c r="H43" s="100" t="n"/>
+      <c r="I43" s="100" t="n"/>
+      <c r="J43" s="102" t="n"/>
     </row>
     <row r="44" ht="18" customHeight="1" thickBot="1">
       <c r="B44" s="7" t="inlineStr">
@@ -4643,30 +4855,30 @@
           <t>ALTURA:</t>
         </is>
       </c>
-      <c r="C44" s="25" t="n"/>
-      <c r="D44" s="106" t="n"/>
-      <c r="E44" s="106" t="n"/>
-      <c r="F44" s="106" t="n"/>
-      <c r="G44" s="106" t="n"/>
-      <c r="H44" s="106" t="n"/>
-      <c r="I44" s="106" t="n"/>
-      <c r="J44" s="107" t="n"/>
+      <c r="C44" s="62" t="n"/>
+      <c r="D44" s="107" t="n"/>
+      <c r="E44" s="107" t="n"/>
+      <c r="F44" s="107" t="n"/>
+      <c r="G44" s="107" t="n"/>
+      <c r="H44" s="107" t="n"/>
+      <c r="I44" s="107" t="n"/>
+      <c r="J44" s="108" t="n"/>
     </row>
     <row r="45" ht="18" customHeight="1" thickBot="1"/>
     <row r="46" ht="18" customHeight="1">
-      <c r="B46" s="38" t="inlineStr">
+      <c r="B46" s="28" t="inlineStr">
         <is>
           <t>INFORMAÇÕES FISCAIS</t>
         </is>
       </c>
-      <c r="C46" s="93" t="n"/>
-      <c r="D46" s="93" t="n"/>
-      <c r="E46" s="93" t="n"/>
-      <c r="F46" s="93" t="n"/>
-      <c r="G46" s="93" t="n"/>
-      <c r="H46" s="93" t="n"/>
-      <c r="I46" s="93" t="n"/>
-      <c r="J46" s="94" t="n"/>
+      <c r="C46" s="94" t="n"/>
+      <c r="D46" s="94" t="n"/>
+      <c r="E46" s="94" t="n"/>
+      <c r="F46" s="94" t="n"/>
+      <c r="G46" s="94" t="n"/>
+      <c r="H46" s="94" t="n"/>
+      <c r="I46" s="94" t="n"/>
+      <c r="J46" s="95" t="n"/>
     </row>
     <row r="47" ht="18" customHeight="1">
       <c r="B47" s="3" t="inlineStr">
@@ -4674,14 +4886,18 @@
           <t>NCM:</t>
         </is>
       </c>
-      <c r="C47" s="32" t="n"/>
-      <c r="D47" s="99" t="n"/>
-      <c r="E47" s="99" t="n"/>
-      <c r="F47" s="99" t="n"/>
-      <c r="G47" s="99" t="n"/>
-      <c r="H47" s="99" t="n"/>
-      <c r="I47" s="99" t="n"/>
-      <c r="J47" s="101" t="n"/>
+      <c r="C47" s="53" t="inlineStr">
+        <is>
+          <t>0811.90.00</t>
+        </is>
+      </c>
+      <c r="D47" s="100" t="n"/>
+      <c r="E47" s="100" t="n"/>
+      <c r="F47" s="100" t="n"/>
+      <c r="G47" s="100" t="n"/>
+      <c r="H47" s="100" t="n"/>
+      <c r="I47" s="100" t="n"/>
+      <c r="J47" s="102" t="n"/>
     </row>
     <row r="48" ht="18" customHeight="1">
       <c r="B48" s="5" t="inlineStr">
@@ -4689,14 +4905,18 @@
           <t>CEST:</t>
         </is>
       </c>
-      <c r="C48" s="34" t="n"/>
-      <c r="D48" s="99" t="n"/>
-      <c r="E48" s="99" t="n"/>
-      <c r="F48" s="99" t="n"/>
-      <c r="G48" s="99" t="n"/>
-      <c r="H48" s="99" t="n"/>
-      <c r="I48" s="99" t="n"/>
-      <c r="J48" s="101" t="n"/>
+      <c r="C48" s="45" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="D48" s="100" t="n"/>
+      <c r="E48" s="100" t="n"/>
+      <c r="F48" s="100" t="n"/>
+      <c r="G48" s="100" t="n"/>
+      <c r="H48" s="100" t="n"/>
+      <c r="I48" s="100" t="n"/>
+      <c r="J48" s="102" t="n"/>
     </row>
     <row r="49" ht="18" customHeight="1">
       <c r="B49" s="3" t="inlineStr">
@@ -4704,14 +4924,14 @@
           <t>IPI:</t>
         </is>
       </c>
-      <c r="C49" s="32" t="n"/>
-      <c r="D49" s="99" t="n"/>
-      <c r="E49" s="99" t="n"/>
-      <c r="F49" s="99" t="n"/>
-      <c r="G49" s="99" t="n"/>
-      <c r="H49" s="99" t="n"/>
-      <c r="I49" s="99" t="n"/>
-      <c r="J49" s="101" t="n"/>
+      <c r="C49" s="53" t="n"/>
+      <c r="D49" s="100" t="n"/>
+      <c r="E49" s="100" t="n"/>
+      <c r="F49" s="100" t="n"/>
+      <c r="G49" s="100" t="n"/>
+      <c r="H49" s="100" t="n"/>
+      <c r="I49" s="100" t="n"/>
+      <c r="J49" s="102" t="n"/>
     </row>
     <row r="50" ht="18" customHeight="1">
       <c r="B50" s="5" t="inlineStr">
@@ -4719,14 +4939,14 @@
           <t>ICMS ORIGEM:</t>
         </is>
       </c>
-      <c r="C50" s="44" t="n"/>
-      <c r="D50" s="99" t="n"/>
-      <c r="E50" s="99" t="n"/>
-      <c r="F50" s="99" t="n"/>
-      <c r="G50" s="99" t="n"/>
-      <c r="H50" s="99" t="n"/>
-      <c r="I50" s="99" t="n"/>
-      <c r="J50" s="101" t="n"/>
+      <c r="C50" s="75" t="n"/>
+      <c r="D50" s="100" t="n"/>
+      <c r="E50" s="100" t="n"/>
+      <c r="F50" s="100" t="n"/>
+      <c r="G50" s="100" t="n"/>
+      <c r="H50" s="100" t="n"/>
+      <c r="I50" s="100" t="n"/>
+      <c r="J50" s="102" t="n"/>
     </row>
     <row r="51" ht="18" customHeight="1">
       <c r="B51" s="3" t="inlineStr">
@@ -4734,18 +4954,18 @@
           <t>ICMS ENTRADA (SAIDA FORNEDOR):</t>
         </is>
       </c>
-      <c r="C51" s="46" t="n"/>
-      <c r="D51" s="101" t="n"/>
+      <c r="C51" s="77" t="n"/>
+      <c r="D51" s="102" t="n"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
           <t>CST ICMS</t>
         </is>
       </c>
-      <c r="F51" s="47" t="n"/>
-      <c r="G51" s="99" t="n"/>
-      <c r="H51" s="99" t="n"/>
-      <c r="I51" s="99" t="n"/>
-      <c r="J51" s="101" t="n"/>
+      <c r="F51" s="78" t="n"/>
+      <c r="G51" s="100" t="n"/>
+      <c r="H51" s="100" t="n"/>
+      <c r="I51" s="100" t="n"/>
+      <c r="J51" s="102" t="n"/>
     </row>
     <row r="52" ht="18" customHeight="1">
       <c r="B52" s="5" t="inlineStr">
@@ -4753,14 +4973,14 @@
           <t>REDUÇÃO DE ICMS:</t>
         </is>
       </c>
-      <c r="C52" s="49" t="n"/>
-      <c r="D52" s="99" t="n"/>
-      <c r="E52" s="99" t="n"/>
-      <c r="F52" s="99" t="n"/>
-      <c r="G52" s="99" t="n"/>
-      <c r="H52" s="99" t="n"/>
-      <c r="I52" s="99" t="n"/>
-      <c r="J52" s="101" t="n"/>
+      <c r="C52" s="80" t="n"/>
+      <c r="D52" s="100" t="n"/>
+      <c r="E52" s="100" t="n"/>
+      <c r="F52" s="100" t="n"/>
+      <c r="G52" s="100" t="n"/>
+      <c r="H52" s="100" t="n"/>
+      <c r="I52" s="100" t="n"/>
+      <c r="J52" s="102" t="n"/>
     </row>
     <row r="53" ht="18" customHeight="1">
       <c r="B53" s="3" t="inlineStr">
@@ -4768,14 +4988,14 @@
           <t>IVA%</t>
         </is>
       </c>
-      <c r="C53" s="32" t="n"/>
-      <c r="D53" s="99" t="n"/>
-      <c r="E53" s="99" t="n"/>
-      <c r="F53" s="99" t="n"/>
-      <c r="G53" s="99" t="n"/>
-      <c r="H53" s="99" t="n"/>
-      <c r="I53" s="99" t="n"/>
-      <c r="J53" s="101" t="n"/>
+      <c r="C53" s="53" t="n"/>
+      <c r="D53" s="100" t="n"/>
+      <c r="E53" s="100" t="n"/>
+      <c r="F53" s="100" t="n"/>
+      <c r="G53" s="100" t="n"/>
+      <c r="H53" s="100" t="n"/>
+      <c r="I53" s="100" t="n"/>
+      <c r="J53" s="102" t="n"/>
     </row>
     <row r="54" ht="18" customHeight="1">
       <c r="B54" s="5" t="inlineStr">
@@ -4783,14 +5003,14 @@
           <t>PAUTA%</t>
         </is>
       </c>
-      <c r="C54" s="34" t="n"/>
-      <c r="D54" s="99" t="n"/>
-      <c r="E54" s="99" t="n"/>
-      <c r="F54" s="99" t="n"/>
-      <c r="G54" s="99" t="n"/>
-      <c r="H54" s="99" t="n"/>
-      <c r="I54" s="99" t="n"/>
-      <c r="J54" s="101" t="n"/>
+      <c r="C54" s="45" t="n"/>
+      <c r="D54" s="100" t="n"/>
+      <c r="E54" s="100" t="n"/>
+      <c r="F54" s="100" t="n"/>
+      <c r="G54" s="100" t="n"/>
+      <c r="H54" s="100" t="n"/>
+      <c r="I54" s="100" t="n"/>
+      <c r="J54" s="102" t="n"/>
     </row>
     <row r="55" ht="18" customHeight="1">
       <c r="B55" s="3" t="inlineStr">
@@ -4798,18 +5018,18 @@
           <t>PIS%</t>
         </is>
       </c>
-      <c r="C55" s="42" t="n"/>
-      <c r="D55" s="101" t="n"/>
+      <c r="C55" s="73" t="n"/>
+      <c r="D55" s="102" t="n"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
           <t>CST PIS</t>
         </is>
       </c>
-      <c r="F55" s="42" t="n"/>
-      <c r="G55" s="99" t="n"/>
-      <c r="H55" s="99" t="n"/>
-      <c r="I55" s="99" t="n"/>
-      <c r="J55" s="101" t="n"/>
+      <c r="F55" s="73" t="n"/>
+      <c r="G55" s="100" t="n"/>
+      <c r="H55" s="100" t="n"/>
+      <c r="I55" s="100" t="n"/>
+      <c r="J55" s="102" t="n"/>
     </row>
     <row r="56" ht="18" customHeight="1" thickBot="1">
       <c r="B56" s="7" t="inlineStr">
@@ -4817,34 +5037,34 @@
           <t>COFINS%:</t>
         </is>
       </c>
-      <c r="C56" s="36" t="n"/>
-      <c r="D56" s="107" t="n"/>
+      <c r="C56" s="82" t="n"/>
+      <c r="D56" s="108" t="n"/>
       <c r="E56" s="8" t="inlineStr">
         <is>
           <t>CST COFINS</t>
         </is>
       </c>
-      <c r="F56" s="36" t="n"/>
-      <c r="G56" s="106" t="n"/>
-      <c r="H56" s="106" t="n"/>
-      <c r="I56" s="106" t="n"/>
-      <c r="J56" s="107" t="n"/>
+      <c r="F56" s="82" t="n"/>
+      <c r="G56" s="107" t="n"/>
+      <c r="H56" s="107" t="n"/>
+      <c r="I56" s="107" t="n"/>
+      <c r="J56" s="108" t="n"/>
     </row>
     <row r="57" ht="18" customHeight="1" thickBot="1"/>
     <row r="58" ht="18" customHeight="1">
-      <c r="B58" s="38" t="inlineStr">
+      <c r="B58" s="28" t="inlineStr">
         <is>
           <t>INFORMAÇÕES PREENCHIDAS PELA COMERCIAL OSWALDO CRUZ</t>
         </is>
       </c>
-      <c r="C58" s="93" t="n"/>
-      <c r="D58" s="93" t="n"/>
-      <c r="E58" s="93" t="n"/>
-      <c r="F58" s="93" t="n"/>
-      <c r="G58" s="93" t="n"/>
-      <c r="H58" s="93" t="n"/>
-      <c r="I58" s="93" t="n"/>
-      <c r="J58" s="94" t="n"/>
+      <c r="C58" s="94" t="n"/>
+      <c r="D58" s="94" t="n"/>
+      <c r="E58" s="94" t="n"/>
+      <c r="F58" s="94" t="n"/>
+      <c r="G58" s="94" t="n"/>
+      <c r="H58" s="94" t="n"/>
+      <c r="I58" s="94" t="n"/>
+      <c r="J58" s="95" t="n"/>
     </row>
     <row r="59" ht="18" customHeight="1">
       <c r="B59" s="5" t="inlineStr">
@@ -4852,14 +5072,14 @@
           <t>COMPRADOR:</t>
         </is>
       </c>
-      <c r="C59" s="34" t="n"/>
-      <c r="D59" s="99" t="n"/>
-      <c r="E59" s="99" t="n"/>
-      <c r="F59" s="99" t="n"/>
-      <c r="G59" s="99" t="n"/>
-      <c r="H59" s="99" t="n"/>
-      <c r="I59" s="99" t="n"/>
-      <c r="J59" s="101" t="n"/>
+      <c r="C59" s="45" t="n"/>
+      <c r="D59" s="100" t="n"/>
+      <c r="E59" s="100" t="n"/>
+      <c r="F59" s="100" t="n"/>
+      <c r="G59" s="100" t="n"/>
+      <c r="H59" s="100" t="n"/>
+      <c r="I59" s="100" t="n"/>
+      <c r="J59" s="102" t="n"/>
     </row>
     <row r="60" ht="18" customFormat="1" customHeight="1" s="9">
       <c r="B60" s="3" t="inlineStr">
@@ -4867,25 +5087,25 @@
           <t>MAPA:</t>
         </is>
       </c>
-      <c r="C60" s="41" t="inlineStr">
+      <c r="C60" s="84" t="inlineStr">
         <is>
           <t>A GRANDE (  )</t>
         </is>
       </c>
-      <c r="D60" s="115" t="n"/>
-      <c r="E60" s="41" t="inlineStr">
+      <c r="D60" s="116" t="n"/>
+      <c r="E60" s="84" t="inlineStr">
         <is>
           <t>A PEQUENO (  )</t>
         </is>
       </c>
-      <c r="F60" s="115" t="n"/>
-      <c r="G60" s="41" t="inlineStr">
+      <c r="F60" s="116" t="n"/>
+      <c r="G60" s="84" t="inlineStr">
         <is>
           <t>C GRANDE (  )</t>
         </is>
       </c>
-      <c r="H60" s="115" t="n"/>
-      <c r="I60" s="41" t="inlineStr">
+      <c r="H60" s="116" t="n"/>
+      <c r="I60" s="84" t="inlineStr">
         <is>
           <t>C PEQUENO (  )</t>
         </is>
@@ -4980,30 +5200,30 @@
           <t>FORMA DE ABASTECIMENTO:</t>
         </is>
       </c>
-      <c r="C63" s="30" t="inlineStr">
+      <c r="C63" s="88" t="inlineStr">
         <is>
           <t>CENTRAL - CENTRAL (  )</t>
         </is>
       </c>
-      <c r="D63" s="115" t="n"/>
-      <c r="E63" s="30" t="inlineStr">
+      <c r="D63" s="116" t="n"/>
+      <c r="E63" s="88" t="inlineStr">
         <is>
           <t>CENTRAL - LOJA (  )</t>
         </is>
       </c>
-      <c r="F63" s="115" t="n"/>
-      <c r="G63" s="30" t="inlineStr">
+      <c r="F63" s="116" t="n"/>
+      <c r="G63" s="88" t="inlineStr">
         <is>
           <t>LOJA - LOJA (  )</t>
         </is>
       </c>
-      <c r="H63" s="115" t="n"/>
-      <c r="I63" s="30" t="inlineStr">
+      <c r="H63" s="116" t="n"/>
+      <c r="I63" s="88" t="inlineStr">
         <is>
           <t>CROSSDOCKING (  )</t>
         </is>
       </c>
-      <c r="J63" s="115" t="n"/>
+      <c r="J63" s="116" t="n"/>
     </row>
     <row r="64" ht="18" customHeight="1">
       <c r="B64" s="3" t="inlineStr">
@@ -5011,14 +5231,14 @@
           <t>JÁ EXISTE FAMÍLIA CADASTRADA?</t>
         </is>
       </c>
-      <c r="C64" s="32" t="n"/>
-      <c r="D64" s="99" t="n"/>
-      <c r="E64" s="99" t="n"/>
-      <c r="F64" s="99" t="n"/>
-      <c r="G64" s="99" t="n"/>
-      <c r="H64" s="99" t="n"/>
-      <c r="I64" s="99" t="n"/>
-      <c r="J64" s="101" t="n"/>
+      <c r="C64" s="53" t="n"/>
+      <c r="D64" s="100" t="n"/>
+      <c r="E64" s="100" t="n"/>
+      <c r="F64" s="100" t="n"/>
+      <c r="G64" s="100" t="n"/>
+      <c r="H64" s="100" t="n"/>
+      <c r="I64" s="100" t="n"/>
+      <c r="J64" s="102" t="n"/>
     </row>
     <row r="65" ht="18" customHeight="1">
       <c r="B65" s="5" t="inlineStr">
@@ -5026,14 +5246,14 @@
           <t>INFORME O CÓDIGO DA FAMÍLIA:</t>
         </is>
       </c>
-      <c r="C65" s="34" t="n"/>
-      <c r="D65" s="99" t="n"/>
-      <c r="E65" s="99" t="n"/>
-      <c r="F65" s="99" t="n"/>
-      <c r="G65" s="99" t="n"/>
-      <c r="H65" s="99" t="n"/>
-      <c r="I65" s="99" t="n"/>
-      <c r="J65" s="101" t="n"/>
+      <c r="C65" s="45" t="n"/>
+      <c r="D65" s="100" t="n"/>
+      <c r="E65" s="100" t="n"/>
+      <c r="F65" s="100" t="n"/>
+      <c r="G65" s="100" t="n"/>
+      <c r="H65" s="100" t="n"/>
+      <c r="I65" s="100" t="n"/>
+      <c r="J65" s="102" t="n"/>
     </row>
     <row r="66" ht="18" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="inlineStr">
@@ -5041,14 +5261,14 @@
           <t>SEGMENTAÇÃO:</t>
         </is>
       </c>
-      <c r="C66" s="25" t="n"/>
-      <c r="D66" s="106" t="n"/>
-      <c r="E66" s="106" t="n"/>
-      <c r="F66" s="106" t="n"/>
-      <c r="G66" s="106" t="n"/>
-      <c r="H66" s="106" t="n"/>
-      <c r="I66" s="106" t="n"/>
-      <c r="J66" s="107" t="n"/>
+      <c r="C66" s="62" t="n"/>
+      <c r="D66" s="107" t="n"/>
+      <c r="E66" s="107" t="n"/>
+      <c r="F66" s="107" t="n"/>
+      <c r="G66" s="107" t="n"/>
+      <c r="H66" s="107" t="n"/>
+      <c r="I66" s="107" t="n"/>
+      <c r="J66" s="108" t="n"/>
     </row>
     <row r="67" ht="18" customHeight="1" thickBot="1">
       <c r="B67" s="9" t="n"/>
@@ -5059,19 +5279,19 @@
       <c r="I67" s="10" t="n"/>
     </row>
     <row r="68" ht="18" customHeight="1" thickBot="1">
-      <c r="B68" s="116" t="inlineStr">
+      <c r="B68" s="117" t="inlineStr">
         <is>
           <t>ATENÇÃO: TODO PRODUTO NOVO PRECISA DE UMA DIVISÃO INICIAL FEITA PELO COMPRADOR</t>
         </is>
       </c>
-      <c r="C68" s="117" t="n"/>
-      <c r="D68" s="117" t="n"/>
-      <c r="E68" s="117" t="n"/>
-      <c r="F68" s="117" t="n"/>
-      <c r="G68" s="117" t="n"/>
-      <c r="H68" s="117" t="n"/>
-      <c r="I68" s="117" t="n"/>
-      <c r="J68" s="118" t="n"/>
+      <c r="C68" s="118" t="n"/>
+      <c r="D68" s="118" t="n"/>
+      <c r="E68" s="118" t="n"/>
+      <c r="F68" s="118" t="n"/>
+      <c r="G68" s="118" t="n"/>
+      <c r="H68" s="118" t="n"/>
+      <c r="I68" s="118" t="n"/>
+      <c r="J68" s="119" t="n"/>
     </row>
     <row r="69" ht="18" customHeight="1"/>
     <row r="70" ht="18" customHeight="1"/>
@@ -5100,95 +5320,95 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="B1:J1"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="F9:J9"/>
     <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B35:J36"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="C27:J27"/>
     <mergeCell ref="B4:J4"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C53:J53"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I39:J39"/>
     <mergeCell ref="F13:J13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="B35:J36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C65:J65"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>